--- a/Standard Deviation/Workbook Standard deviation.xlsx
+++ b/Standard Deviation/Workbook Standard deviation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CindyDavid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Standard Deviation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D498BB-FC03-4808-AD71-00B5840EA017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873DBC7-958B-434A-9EB8-19B64431E957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="22680" windowHeight="14190" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId1"/>
@@ -22,20 +22,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Classifying data'!$A$1:$B$423</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NBA Players 14-15 season'!$A$1:$G$423</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Skew!$D$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Skew!$D$2:$D$423</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Skew!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Skew!$B$2:$B$423</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Skew!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Skew!$C$2:$C$423</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Skew!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Skew!$E$2:$E$423</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Skew!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Skew!$E$2:$E$423</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$423</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2159,20 +2158,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2198,6 +2185,21 @@
     <xf numFmtId="0" fontId="16" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2222,15 +2224,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,57 +2236,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Pourcentage" xfId="42" builtinId="5"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2312,7 +2311,2133 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>PTS - Moderate right skey</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>PTS - Moderate right skey</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BDC38E06-A321-4ED1-AAA1-015FE6989E9D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>PTS</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Games Played - Moderate left skew</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Games Played - Moderate left skew</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5A167908-0721-4D2F-AB43-51652A49665D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Games Played</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Height - Approx Symtrical</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Height - Approx Symtrical</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{321DB0EF-EB7A-4CFF-B477-721AC326B602}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Height</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="150"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2EF899-A558-3616-01D1-BD43F5E472CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5210175" y="4024312"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>280987</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE99A93-CDEA-EFF4-14F8-CB42F9FF45FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9939337" y="4071937"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>280987</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665CB456-7AF7-81CE-BEE1-DB15B813D472}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14787562" y="4071937"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2660,7 +4785,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2962,7 +5087,7 @@
       <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -12713,11 +14838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O423"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -12753,10 +14878,10 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
@@ -12826,12 +14951,30 @@
       <c r="I3" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="J3" s="11">
+        <f>MEDIAN(B:B)</f>
+        <v>432</v>
+      </c>
+      <c r="K3" s="11">
+        <f>MEDIAN(C:C)</f>
+        <v>62</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" ref="L3:O3" si="0">MEDIAN(D:D)</f>
+        <v>27</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" si="0"/>
+        <v>197.5</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" si="0"/>
+        <v>25.420833335000001</v>
+      </c>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -12858,12 +15001,30 @@
       <c r="I4" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="J4" s="11">
+        <f>AVERAGE(B:B)</f>
+        <v>515.89099526066354</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:O4" si="1">AVERAGE(C:C)</f>
+        <v>53.748815165876778</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="1"/>
+        <v>27.507109004739338</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="1"/>
+        <v>197.44075829383885</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="1"/>
+        <v>99.469194312796191</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="1"/>
+        <v>25.427746806184828</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -12890,12 +15051,30 @@
       <c r="I5" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="J5" s="11">
+        <f>SKEW(B:B)</f>
+        <v>0.84628151754296721</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" ref="K5:M5" si="2">SKEW(C:C)</f>
+        <v>-0.7145556099526752</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="2"/>
+        <v>0.59633113452253828</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.30853007221460316</v>
+      </c>
+      <c r="N5" s="11">
+        <f>SKEW(F:F)</f>
+        <v>0.32560227547287879</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" ref="O5" si="3">SKEW(G:G)</f>
+        <v>0.55955456535570636</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -12942,17 +15121,17 @@
       <c r="G7" s="8">
         <v>30.945865560000001</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="17" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -12976,21 +15155,21 @@
       <c r="G8" s="8">
         <v>26.035502959999999</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="18" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="28" t="s">
         <v>438</v>
       </c>
     </row>
@@ -13016,13 +15195,13 @@
       <c r="G9" s="8">
         <v>25.325443790000001</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -13046,21 +15225,21 @@
       <c r="G10" s="8">
         <v>25</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="16" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="24" t="s">
         <v>443</v>
       </c>
     </row>
@@ -13086,13 +15265,13 @@
       <c r="G11" s="8">
         <v>25.910034599999999</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -22572,12 +24751,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I7:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="K7:O7"/>
@@ -22586,10 +24759,17 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I7:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22601,7 +24781,7 @@
       <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -22616,34 +24796,34 @@
       <c r="A2" s="8">
         <v>81.45</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>72.45</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>99</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -22654,46 +24834,46 @@
       <c r="A5" s="8">
         <v>106.65</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>110.25</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>130.05000000000001</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>99</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -24796,11 +26976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4BB21A-0D1D-4534-9E2C-198EB46BE37A}">
   <dimension ref="A1:M423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" customWidth="1"/>
@@ -24827,13 +27007,13 @@
       <c r="B2" s="5">
         <v>72.45</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="14"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="M2" s="17" t="s">
+      <c r="G2" s="42"/>
+      <c r="M2" s="26" t="s">
         <v>451</v>
       </c>
     </row>
@@ -24846,12 +27026,12 @@
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="13"/>
-      <c r="M3" s="17"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -24862,10 +27042,10 @@
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="13"/>
-      <c r="M4" s="17"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -24876,16 +27056,16 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="13"/>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="17"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -24896,12 +27076,12 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="13"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="28" t="s">
+      <c r="K6" s="40"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="29" t="s">
         <v>454</v>
       </c>
     </row>
@@ -24914,12 +27094,12 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="13"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -24930,10 +27110,10 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="36"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="13"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -24944,16 +27124,16 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="13"/>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="29"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -24964,12 +27144,12 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="13"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="28" t="s">
+      <c r="K10" s="40"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="29" t="s">
         <v>458</v>
       </c>
     </row>
@@ -24982,11 +27162,11 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="43" t="s">
         <v>459</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="M11" s="39"/>
+      <c r="G11" s="41"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -24997,9 +27177,9 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="36"/>
-      <c r="M12" s="39"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="41"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -25010,15 +27190,15 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="K13" s="40" t="s">
+      <c r="G13" s="41"/>
+      <c r="K13" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -25030,11 +27210,11 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="36"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="28" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="41"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="29" t="s">
         <v>462</v>
       </c>
     </row>
@@ -25049,7 +27229,7 @@
       <c r="D15" s="14"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -25060,7 +27240,7 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -25071,15 +27251,15 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="29"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -25090,11 +27270,11 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="28" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="29" t="s">
         <v>464</v>
       </c>
     </row>
@@ -25107,11 +27287,11 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="M19" s="39"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -25122,10 +27302,10 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="17"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="26"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="39"/>
+      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -25136,12 +27316,12 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="26" t="s">
         <v>458</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="M21" s="29"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -25152,8 +27332,8 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -25164,8 +27344,8 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="26" t="s">
         <v>462</v>
       </c>
     </row>
@@ -25178,8 +27358,8 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -25190,8 +27370,8 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="26" t="s">
         <v>465</v>
       </c>
     </row>
@@ -25204,8 +27384,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -29179,6 +31359,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="M18:M21"/>
     <mergeCell ref="K17:L18"/>
     <mergeCell ref="G5:G6"/>
@@ -29195,22 +31391,6 @@
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29227,7 +31407,7 @@
       <selection activeCell="F2" sqref="F2:F423"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>

--- a/Standard Deviation/Workbook Standard deviation.xlsx
+++ b/Standard Deviation/Workbook Standard deviation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Standard Deviation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873DBC7-958B-434A-9EB8-19B64431E957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4C5BC0-A6B5-40DA-A44F-FC2AF24D0C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId1"/>
@@ -22,16 +22,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Classifying data'!$A$1:$B$423</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NBA Players 14-15 season'!$A$1:$G$423</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Skew!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Skew!$D$2:$D$423</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Skew!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Skew!$B$2:$B$423</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Using STD deviation'!$A$1:$A$423</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Skew!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Skew!$B$2:$B$423</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Using STD deviation'!$A$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Using STD deviation'!$A$2:$A$423</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Skew!$E$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Skew!$E$2:$E$423</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Skew!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Skew!$C$2:$C$423</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Skew!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Skew!$E$2:$E$423</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Skew!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Skew!$E$2:$E$423</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Using STD deviation'!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Using STD deviation'!$A$2:$A$423</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Using STD deviation'!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Using STD deviation'!$A$2:$A$423</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$423</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="469">
   <si>
     <t>Name</t>
   </si>
@@ -1449,6 +1452,15 @@
   </si>
   <si>
     <t>Very High</t>
+  </si>
+  <si>
+    <t>Average / Mean</t>
+  </si>
+  <si>
+    <t>Skew</t>
+  </si>
+  <si>
+    <t>Percentiles</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2132,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2161,6 +2173,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2184,21 +2211,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2224,6 +2236,15 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2236,18 +2257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2316,7 +2329,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2354,7 +2367,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BDC38E06-A321-4ED1-AAA1-015FE6989E9D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>PTS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2452,7 +2465,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2490,7 +2503,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{321DB0EF-EB7A-4CFF-B477-721AC326B602}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Height</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2527,6 +2540,141 @@
             </a:endParaRPr>
           </a:p>
         </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Weight - Approx Symetrical Skew</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Weight - Approx Symetrical Skew</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{3E5C50C6-B9FE-4816-A202-4B126BCB5F01}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Weight</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="40"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Weight</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Weight</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{CB8F2240-D590-4CF7-A907-62E116E7DF8B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Weight</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -2614,6 +2762,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4198,6 +4426,1029 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4438,6 +5689,167 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>589816</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>359019</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5463A89A-04B1-9014-AF7C-90B88ED70567}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1197951" y="2394439"/>
+              <a:ext cx="4238626" cy="2624503"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>599342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>461596</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13194B5B-F81E-7337-65FF-7A61EBA8ED0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5693019" y="599342"/>
+              <a:ext cx="6535615" cy="3833446"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14838,7 +16250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -14878,10 +16290,10 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
@@ -15121,17 +16533,17 @@
       <c r="G7" s="8">
         <v>30.945865560000001</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="26" t="s">
+      <c r="J7" s="24"/>
+      <c r="K7" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -15155,21 +16567,21 @@
       <c r="G8" s="8">
         <v>26.035502959999999</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="27" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="20" t="s">
         <v>438</v>
       </c>
     </row>
@@ -15195,13 +16607,13 @@
       <c r="G9" s="8">
         <v>25.325443790000001</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -15225,21 +16637,21 @@
       <c r="G10" s="8">
         <v>25</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="24" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="17" t="s">
         <v>443</v>
       </c>
     </row>
@@ -15265,13 +16677,13 @@
       <c r="G11" s="8">
         <v>25.910034599999999</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -24751,6 +26163,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I7:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="K7:O7"/>
@@ -24759,12 +26177,6 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I7:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24777,13 +26189,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7316473-FC0A-4C63-BA86-386CFCDD993B}">
   <dimension ref="A1:L423"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24794,7 +26207,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>81.45</v>
+        <v>162</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>444</v>
@@ -24805,20 +26218,26 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>72.45</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="29">
+        <f>QUARTILE(A:A,1)</f>
+        <v>90</v>
+      </c>
       <c r="E3" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="29">
+        <f>STDEV(A:A)</f>
+        <v>12.364228393530565</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>99</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="30"/>
@@ -24832,21 +26251,27 @@
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>106.65</v>
+        <v>128.25</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="29">
+        <f>QUARTILE(A:A,2)</f>
+        <v>99</v>
+      </c>
       <c r="E5" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="29">
+        <f>D9+F3</f>
+        <v>111.8334227063267</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>110.25</v>
+        <v>125.55</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="30"/>
@@ -24855,20 +26280,26 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>130.05000000000001</v>
+        <v>123.75</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="29">
+        <f>_xlfn.QUARTILE.INC(A:A,3)</f>
+        <v>108</v>
+      </c>
       <c r="E7" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="29">
+        <f>D9-F3</f>
+        <v>87.104965919265567</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>99</v>
+        <v>123.75</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="30"/>
@@ -24877,157 +26308,202 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>96.3</v>
+        <v>123.75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(A:A)</f>
+        <v>99.469194312796134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F9">
+        <f>SKEW(A:A)</f>
+        <v>0.32560227547289711</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>110.25</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>117</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>85.5</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>111.6</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>99</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>94.5</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>101.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>96.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>125.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>96.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C27" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <f>PERCENTILE(A:A,0.25)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>113.85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C28" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <f>PERCENTILE(A:A,0.5)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C29" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="D29">
+        <f>PERCENTILE(A:A,0.75)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C30" s="45">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>PERCENTILE(A:A,1)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>114.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>94.5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>87.75</v>
+        <v>116.1</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>108</v>
+        <v>115.65</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -25037,182 +26513,182 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>112.95</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>97.2</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>112.5</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>93.15</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <v>112.5</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
-        <v>108</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <v>76.5</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <v>85.05</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <v>99</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <v>120.6</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <v>77.849999999999994</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <v>123.75</v>
+        <v>113.85</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <v>98.1</v>
+        <v>113.85</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>74.25</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>78.75</v>
+        <v>112.95</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>112.5</v>
+        <v>112.95</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <v>111.6</v>
+        <v>112.95</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <v>116.1</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <v>108</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
-        <v>102.6</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <v>99</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
-        <v>103.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>114.75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <v>94.05</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <v>110.25</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>105.75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <v>107.55</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>90</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>92.7</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>119.25</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <v>78.75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>108</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>90</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>101.25</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <v>94.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <v>108</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -25222,87 +26698,87 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <v>83.7</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <v>98.1</v>
+        <v>112.05</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <v>86.85</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <v>90</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <v>82.35</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <v>101.25</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <v>87.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
-        <v>102.6</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <v>101.25</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <v>99.9</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <v>96.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <v>103.5</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <v>85.5</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <v>105.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
-        <v>85.5</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
-        <v>105.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
-        <v>78.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -25312,112 +26788,112 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
-        <v>74.25</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
-        <v>112.5</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
-        <v>119.25</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
-        <v>121.5</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
-        <v>99.45</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
-        <v>121.5</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
-        <v>96.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
-        <v>77.400000000000006</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
-        <v>119.25</v>
+        <v>108.45</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
-        <v>85.5</v>
+        <v>108.45</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
-        <v>86.4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
-        <v>110.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
-        <v>110.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
-        <v>92.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
-        <v>99.9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
-        <v>101.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
-        <v>103.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
-        <v>112.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
-        <v>110.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
-        <v>85.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
-        <v>119.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
@@ -25427,12 +26903,12 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
-        <v>112.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
-        <v>101.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
@@ -25442,127 +26918,127 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
-        <v>83.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
-        <v>123.75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
-        <v>110.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
-        <v>85.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
-        <v>96.75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
-        <v>83.25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
-        <v>105.75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
-        <v>85.95</v>
+        <v>107.55</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
-        <v>92.25</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
-        <v>114.75</v>
+        <v>106.65</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
-        <v>87.75</v>
+        <v>106.65</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
-        <v>108</v>
+        <v>106.65</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
-        <v>85.95</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
-        <v>87.75</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
-        <v>94.5</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
-        <v>94.5</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
-        <v>84.6</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
-        <v>92.25</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
-        <v>96.75</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
-        <v>99.9</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
-        <v>130.05000000000001</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
-        <v>92.7</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
-        <v>85.5</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
-        <v>101.7</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
-        <v>108.45</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
@@ -25572,177 +27048,177 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
-        <v>119.25</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
-        <v>112.5</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
-        <v>117</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
-        <v>97.65</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
-        <v>94.5</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
-        <v>78.75</v>
+        <v>104.85</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
-        <v>112.5</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
-        <v>99</v>
+        <v>103.95</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
-        <v>90.45</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
-        <v>83.25</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
-        <v>83.25</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
-        <v>96.75</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
-        <v>117</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
-        <v>105.75</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
-        <v>85.95</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
-        <v>90</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
-        <v>85.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
-        <v>94.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
-        <v>99</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
-        <v>112.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
-        <v>98.1</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
-        <v>103.5</v>
+        <v>103.05</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
-        <v>102.15</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
-        <v>78.75</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
-        <v>87.75</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
-        <v>101.25</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
-        <v>117</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
-        <v>90</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
-        <v>117</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
-        <v>99</v>
+        <v>102.15</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
-        <v>121.5</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
-        <v>110.25</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
-        <v>108</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
-        <v>105.75</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
-        <v>83.7</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
@@ -25752,102 +27228,102 @@
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
-        <v>94.5</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
-        <v>90</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
-        <v>90</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
-        <v>83.25</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
-        <v>90</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
-        <v>113.85</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
-        <v>110.25</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
-        <v>90</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
-        <v>87.75</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
-        <v>99</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
-        <v>108.9</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
-        <v>85.5</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
-        <v>103.5</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
-        <v>94.5</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
-        <v>98.55</v>
+        <v>100.35</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
-        <v>101.7</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
-        <v>108</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
-        <v>110.25</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
-        <v>112.5</v>
+        <v>99.45</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
-        <v>120.6</v>
+        <v>99.45</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
@@ -25857,52 +27333,52 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
-        <v>103.05</v>
+        <v>99</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
-        <v>96.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
-        <v>74.7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
-        <v>115.65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
-        <v>102.6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
-        <v>103.95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
-        <v>119.25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
-        <v>94.05</v>
+        <v>99</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
-        <v>87.3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -25912,137 +27388,137 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
-        <v>105.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
-        <v>85.95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
-        <v>101.25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
-        <v>92.25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
-        <v>112.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
-        <v>83.25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
-        <v>87.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
-        <v>103.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
-        <v>107.1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
-        <v>77.400000000000006</v>
+        <v>99</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
-        <v>90</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
-        <v>121.5</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
-        <v>102.6</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
-        <v>90.45</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
-        <v>92.25</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
-        <v>105.3</v>
+        <v>97.65</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
-        <v>108</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
-        <v>108</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
-        <v>112.95</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
-        <v>89.55</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
-        <v>128.25</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
-        <v>105.3</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
-        <v>85.5</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
-        <v>92.25</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
@@ -26052,322 +27528,322 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
-        <v>95.4</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
-        <v>119.25</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
-        <v>101.25</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
-        <v>105.75</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
-        <v>103.5</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
-        <v>95.4</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
-        <v>88.2</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
-        <v>112.5</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
-        <v>102.6</v>
+        <v>95.85</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
-        <v>86.85</v>
+        <v>95.85</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
-        <v>117</v>
+        <v>95.85</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
-        <v>103.5</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
-        <v>94.5</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
-        <v>90</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
-        <v>81</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
-        <v>117</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
-        <v>87.3</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
-        <v>112.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
-        <v>85.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
-        <v>85.05</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
-        <v>99</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
-        <v>78.75</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
-        <v>103.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
-        <v>108.45</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
-        <v>108</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
-        <v>101.25</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
-        <v>78.75</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
-        <v>99</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
-        <v>90</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
-        <v>92.25</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
-        <v>114.75</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
-        <v>108</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
-        <v>94.5</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
-        <v>105.75</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
-        <v>99</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
-        <v>85.5</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
-        <v>85.5</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
-        <v>110.25</v>
+        <v>93.15</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
-        <v>114.75</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
-        <v>106.65</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
-        <v>110.25</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
-        <v>101.7</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
-        <v>105.75</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
-        <v>89.1</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
-        <v>96.75</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
-        <v>110.25</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
-        <v>105.75</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
-        <v>85.5</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
-        <v>104.4</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
-        <v>78.75</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
-        <v>103.5</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
-        <v>98.1</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
-        <v>108</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
-        <v>106.65</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
-        <v>112.05</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
-        <v>114.75</v>
+        <v>91.35</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
-        <v>89.1</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
-        <v>83.25</v>
+        <v>90.45</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
-        <v>99.45</v>
+        <v>90.45</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
-        <v>112.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
-        <v>102.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
-        <v>95.85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
-        <v>114.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
-        <v>90.9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -26377,422 +27853,422 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
-        <v>92.25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
-        <v>78.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
-        <v>94.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
-        <v>112.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
-        <v>114.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
-        <v>101.25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
-        <v>89.1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
-        <v>83.25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
-        <v>83.25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
-        <v>94.05</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
-        <v>83.25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
-        <v>112.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
-        <v>110.7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
-        <v>105.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
-        <v>105.75</v>
+        <v>89.55</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
-        <v>78.75</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
-        <v>103.5</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
-        <v>108</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
-        <v>94.5</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
-        <v>99</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
-        <v>83.7</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
-        <v>85.5</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
-        <v>95.85</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
-        <v>96.75</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
-        <v>85.5</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
-        <v>92.25</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
-        <v>92.25</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
-        <v>110.25</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
-        <v>93.6</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
-        <v>104.85</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
-        <v>87.75</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
-        <v>96.75</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
-        <v>96.75</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
-        <v>114.75</v>
+        <v>86.85</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
-        <v>92.7</v>
+        <v>86.85</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
-        <v>94.5</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
-        <v>85.5</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
-        <v>121.5</v>
+        <v>85.95</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
-        <v>103.5</v>
+        <v>85.95</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
-        <v>110.25</v>
+        <v>85.95</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
-        <v>74.25</v>
+        <v>85.95</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
-        <v>108</v>
+        <v>85.95</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
-        <v>108</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
-        <v>103.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
-        <v>114.75</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
-        <v>94.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
-        <v>105.75</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
-        <v>93.6</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
-        <v>83.25</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
-        <v>100.35</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
-        <v>78.75</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
-        <v>92.25</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
-        <v>86.4</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
-        <v>108</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
-        <v>99</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
-        <v>112.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
-        <v>91.35</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
-        <v>162</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
-        <v>101.25</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
-        <v>90</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
-        <v>110.25</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
-        <v>85.5</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
-        <v>77.400000000000006</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
-        <v>101.25</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
-        <v>114.75</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
-        <v>101.25</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
-        <v>112.5</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
-        <v>95.4</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
-        <v>113.4</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
-        <v>92.7</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
-        <v>99</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
-        <v>110.25</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
-        <v>112.5</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
-        <v>76.5</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
-        <v>92.25</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
-        <v>123.75</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
-        <v>105.75</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
-        <v>87.75</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
-        <v>95.85</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -26802,155 +28278,160 @@
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
-        <v>90</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
-        <v>87.75</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
-        <v>96.75</v>
+        <v>82.35</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
-        <v>102.6</v>
+        <v>81.45</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
-        <v>85.95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
-        <v>92.25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
-        <v>87.75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
-        <v>87.3</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
-        <v>112.5</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
-        <v>83.7</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
-        <v>99</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
-        <v>108</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
-        <v>105.75</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
-        <v>90</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
-        <v>100.8</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
-        <v>94.5</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
-        <v>99</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
-        <v>90</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
-        <v>96.75</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
-        <v>99</v>
+        <v>77.849999999999994</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
-        <v>78.75</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
-        <v>83.25</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
-        <v>83.25</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
-        <v>90</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
-        <v>101.25</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
-        <v>99</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
-        <v>85.05</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
-        <v>117</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
-        <v>121.5</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
-        <v>90</v>
+        <v>72.45</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A423" xr:uid="{D7316473-FC0A-4C63-BA86-386CFCDD993B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A423">
+      <sortCondition descending="1" ref="A1:A423"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="13">
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
@@ -26969,6 +28450,7 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27009,11 +28491,11 @@
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="M2" s="26" t="s">
+      <c r="G2" s="44"/>
+      <c r="M2" s="18" t="s">
         <v>451</v>
       </c>
     </row>
@@ -27029,9 +28511,9 @@
       <c r="F3" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="13"/>
-      <c r="M3" s="26"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -27043,9 +28525,9 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="41"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="13"/>
-      <c r="M4" s="26"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -27059,13 +28541,13 @@
       <c r="F5" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="13"/>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -27077,10 +28559,10 @@
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="41"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="13"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="29" t="s">
         <v>454</v>
       </c>
@@ -27094,12 +28576,12 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="13"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -27110,10 +28592,10 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="41"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="13"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -27124,15 +28606,15 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="13"/>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -27144,11 +28626,11 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="41"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="13"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="39"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="29" t="s">
         <v>458</v>
       </c>
@@ -27162,11 +28644,11 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="M11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -27177,9 +28659,9 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="41"/>
-      <c r="M12" s="37"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="37"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -27190,14 +28672,14 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="K13" s="38" t="s">
+      <c r="G13" s="37"/>
+      <c r="K13" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -27210,10 +28692,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="41"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="37"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="29" t="s">
         <v>462</v>
       </c>
@@ -27229,7 +28711,7 @@
       <c r="D15" s="14"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="37"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -27240,7 +28722,7 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="M16" s="37"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -27251,14 +28733,14 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -27270,10 +28752,10 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="39"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="29" t="s">
         <v>464</v>
       </c>
@@ -27287,11 +28769,11 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="26" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="M19" s="37"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -27302,10 +28784,10 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="18"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="37"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -27316,8 +28798,8 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="26" t="s">
+      <c r="F21" s="37"/>
+      <c r="G21" s="18" t="s">
         <v>458</v>
       </c>
       <c r="K21" s="3"/>
@@ -27332,8 +28814,8 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -27344,8 +28826,8 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="26" t="s">
+      <c r="F23" s="37"/>
+      <c r="G23" s="18" t="s">
         <v>462</v>
       </c>
     </row>
@@ -27358,8 +28840,8 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -27370,8 +28852,8 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="26" t="s">
+      <c r="F25" s="37"/>
+      <c r="G25" s="18" t="s">
         <v>465</v>
       </c>
     </row>
@@ -27384,8 +28866,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -31359,22 +32841,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="M18:M21"/>
     <mergeCell ref="K17:L18"/>
     <mergeCell ref="G5:G6"/>
@@ -31391,6 +32857,22 @@
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Standard Deviation/Workbook Standard deviation.xlsx
+++ b/Standard Deviation/Workbook Standard deviation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Standard Deviation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4C5BC0-A6B5-40DA-A44F-FC2AF24D0C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B9314-715D-40D5-81EF-B1DFDF9C4299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Classifying data'!$A$1:$B$423</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NBA Players 14-15 season'!$A$1:$G$423</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Using STD deviation'!$A$1:$A$423</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Skew!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Skew!$B$2:$B$423</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Using STD deviation'!$A$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Using STD deviation'!$A$2:$A$423</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Skew!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Skew!$E$2:$E$423</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Skew!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Skew!$E$2:$E$423</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Skew!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Skew!$B$2:$B$423</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Skew!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Skew!$C$2:$C$423</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Using STD deviation'!$A$1</definedName>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="470">
   <si>
     <t>Name</t>
   </si>
@@ -1461,6 +1459,9 @@
   </si>
   <si>
     <t>Percentiles</t>
+  </si>
+  <si>
+    <t>Percentile Rank</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2133,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2173,21 +2174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2211,6 +2198,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2236,15 +2238,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2257,10 +2250,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2329,7 +2331,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2367,7 +2369,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BDC38E06-A321-4ED1-AAA1-015FE6989E9D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>PTS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2465,7 +2467,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2503,7 +2505,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{321DB0EF-EB7A-4CFF-B477-721AC326B602}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Height</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2551,7 +2553,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2589,7 +2591,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3E5C50C6-B9FE-4816-A202-4B126BCB5F01}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Weight</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2619,7 +2621,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2657,7 +2659,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{CB8F2240-D590-4CF7-A907-62E116E7DF8B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Weight</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5692,14 +5694,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>589816</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>71804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>359019</xdr:colOff>
+      <xdr:colOff>359018</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>29307</xdr:rowOff>
     </xdr:to>
@@ -5737,8 +5739,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1197951" y="2394439"/>
-              <a:ext cx="4238626" cy="2624503"/>
+              <a:off x="1648557" y="2394439"/>
+              <a:ext cx="4454769" cy="2624503"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5815,8 +5817,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5693019" y="599342"/>
-              <a:ext cx="6535615" cy="3833446"/>
+              <a:off x="5969977" y="599342"/>
+              <a:ext cx="6550269" cy="3834911"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16290,10 +16292,10 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
@@ -16533,17 +16535,17 @@
       <c r="G7" s="8">
         <v>30.945865560000001</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="18" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -16567,21 +16569,21 @@
       <c r="G8" s="8">
         <v>26.035502959999999</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="19" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="29" t="s">
         <v>438</v>
       </c>
     </row>
@@ -16607,13 +16609,13 @@
       <c r="G9" s="8">
         <v>25.325443790000001</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -16637,21 +16639,21 @@
       <c r="G10" s="8">
         <v>25</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="17" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="25" t="s">
         <v>443</v>
       </c>
     </row>
@@ -16677,13 +16679,13 @@
       <c r="G11" s="8">
         <v>25.910034599999999</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -26163,12 +26165,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I7:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="K7:O7"/>
@@ -26177,6 +26173,12 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I7:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26190,11 +26192,12 @@
   <dimension ref="A1:L423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -26204,33 +26207,44 @@
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="B1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>162</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="46">
+        <f>PERCENTRANK(A:A,A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>130.05000000000001</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="46">
+        <f t="shared" ref="B3:B66" si="0">PERCENTRANK(A:A,A3)</f>
+        <v>0.995</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="30">
         <f>QUARTILE(A:A,1)</f>
         <v>90</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="30">
         <f>STDEV(A:A)</f>
         <v>12.364228393530565</v>
       </c>
@@ -26239,10 +26253,14 @@
       <c r="A4" s="8">
         <v>130.05000000000001</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="46">
+        <f t="shared" si="0"/>
+        <v>0.995</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -26253,17 +26271,21 @@
       <c r="A5" s="8">
         <v>128.25</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="30">
         <f>QUARTILE(A:A,2)</f>
         <v>99</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="30">
         <f>D9+F3</f>
         <v>111.8334227063267</v>
       </c>
@@ -26273,26 +26295,34 @@
       <c r="A6" s="8">
         <v>125.55</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>123.75</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="46">
+        <f t="shared" si="0"/>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="30">
         <f>_xlfn.QUARTILE.INC(A:A,3)</f>
         <v>108</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="30">
         <f>D9-F3</f>
         <v>87.104965919265567</v>
       </c>
@@ -26301,15 +26331,23 @@
       <c r="A8" s="8">
         <v>123.75</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="46">
+        <f t="shared" si="0"/>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>123.75</v>
       </c>
+      <c r="B9" s="46">
+        <f t="shared" si="0"/>
+        <v>0.98299999999999998</v>
+      </c>
       <c r="C9" t="s">
         <v>466</v>
       </c>
@@ -26329,86 +26367,154 @@
       <c r="A10" s="8">
         <v>121.5</v>
       </c>
+      <c r="B10" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96899999999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>121.5</v>
       </c>
+      <c r="B11" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96899999999999997</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>121.5</v>
       </c>
+      <c r="B12" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96899999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>121.5</v>
       </c>
+      <c r="B13" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96899999999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>121.5</v>
       </c>
+      <c r="B14" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96899999999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>121.5</v>
       </c>
+      <c r="B15" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96899999999999997</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>120.6</v>
       </c>
+      <c r="B16" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96399999999999997</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>120.6</v>
       </c>
+      <c r="B17" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96399999999999997</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>119.25</v>
       </c>
+      <c r="B18" s="46">
+        <f t="shared" si="0"/>
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>119.25</v>
       </c>
+      <c r="B19" s="46">
+        <f t="shared" si="0"/>
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>119.25</v>
       </c>
+      <c r="B20" s="46">
+        <f t="shared" si="0"/>
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>119.25</v>
       </c>
+      <c r="B21" s="46">
+        <f t="shared" si="0"/>
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>119.25</v>
       </c>
+      <c r="B22" s="46">
+        <f t="shared" si="0"/>
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>119.25</v>
       </c>
+      <c r="B23" s="46">
+        <f t="shared" si="0"/>
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>119.25</v>
       </c>
+      <c r="B24" s="46">
+        <f t="shared" si="0"/>
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>117</v>
       </c>
+      <c r="B25" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>117</v>
       </c>
+      <c r="B26" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
       <c r="C26" t="s">
         <v>468</v>
       </c>
@@ -26417,7 +26523,11 @@
       <c r="A27" s="8">
         <v>117</v>
       </c>
-      <c r="C27" s="45">
+      <c r="B27" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C27" s="16">
         <v>0.25</v>
       </c>
       <c r="D27">
@@ -26429,7 +26539,11 @@
       <c r="A28" s="8">
         <v>117</v>
       </c>
-      <c r="C28" s="45">
+      <c r="B28" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C28" s="16">
         <v>0.5</v>
       </c>
       <c r="D28">
@@ -26441,7 +26555,11 @@
       <c r="A29" s="8">
         <v>117</v>
       </c>
-      <c r="C29" s="45">
+      <c r="B29" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C29" s="16">
         <v>0.75</v>
       </c>
       <c r="D29">
@@ -26453,7 +26571,11 @@
       <c r="A30" s="8">
         <v>117</v>
       </c>
-      <c r="C30" s="45">
+      <c r="B30" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C30" s="16">
         <v>1</v>
       </c>
       <c r="D30">
@@ -26465,1965 +26587,3537 @@
       <c r="A31" s="8">
         <v>117</v>
       </c>
+      <c r="B31" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>116.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>115.65</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="46">
+        <f t="shared" si="0"/>
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>113.85</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="46">
+        <f t="shared" si="0"/>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>113.85</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="46">
+        <f t="shared" si="0"/>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>113.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="46">
+        <f t="shared" si="0"/>
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>112.95</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="46">
+        <f t="shared" si="0"/>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>112.95</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="46">
+        <f t="shared" si="0"/>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>112.95</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="46">
+        <f t="shared" si="0"/>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="46">
+        <f t="shared" si="0"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="46">
+        <f t="shared" ref="B67:B130" si="1">PERCENTRANK(A:A,A67)</f>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>112.05</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>111.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>111.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="46">
+        <f t="shared" si="1"/>
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>110.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="46">
+        <f t="shared" si="1"/>
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>108.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="46">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>108.45</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="46">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>108.45</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="46">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>108</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="46">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>107.55</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="46">
+        <f t="shared" si="1"/>
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>107.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="46">
+        <f t="shared" si="1"/>
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>106.65</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="46">
+        <f t="shared" ref="B131:B194" si="2">PERCENTRANK(A:A,A131)</f>
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>106.65</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="46">
+        <f t="shared" si="2"/>
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>106.65</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="46">
+        <f t="shared" si="2"/>
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>104.85</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="46">
+        <f t="shared" si="2"/>
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>104.4</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="46">
+        <f t="shared" si="2"/>
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>103.95</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="46">
+        <f t="shared" si="2"/>
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>103.05</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="46">
+        <f t="shared" si="2"/>
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="46">
+        <f t="shared" si="2"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="46">
+        <f t="shared" si="2"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="46">
+        <f t="shared" si="2"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="46">
+        <f t="shared" si="2"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="46">
+        <f t="shared" si="2"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="46">
+        <f t="shared" si="2"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="46">
+        <f t="shared" si="2"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>102.15</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="46">
+        <f t="shared" si="2"/>
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>101.7</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="46">
+        <f t="shared" si="2"/>
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>101.7</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="46">
+        <f t="shared" si="2"/>
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>101.7</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="46">
+        <f t="shared" si="2"/>
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="46">
+        <f t="shared" si="2"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="46">
+        <f t="shared" ref="B195:B258" si="3">PERCENTRANK(A:A,A195)</f>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="46">
+        <f t="shared" si="3"/>
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>100.8</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="46">
+        <f t="shared" si="3"/>
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>100.35</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="46">
+        <f t="shared" si="3"/>
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="46">
+        <f t="shared" si="3"/>
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="46">
+        <f t="shared" si="3"/>
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="46">
+        <f t="shared" si="3"/>
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>99.45</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="46">
+        <f t="shared" si="3"/>
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>99.45</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="46">
+        <f t="shared" si="3"/>
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>98.55</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="46">
+        <f t="shared" si="3"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>98.1</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="46">
+        <f t="shared" si="3"/>
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>98.1</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="46">
+        <f t="shared" si="3"/>
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>98.1</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" s="46">
+        <f t="shared" si="3"/>
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>98.1</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="46">
+        <f t="shared" si="3"/>
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>97.65</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" s="46">
+        <f t="shared" si="3"/>
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>97.2</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="46">
+        <f t="shared" si="3"/>
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" s="46">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>96.3</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="46">
+        <f t="shared" si="3"/>
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>95.85</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" s="46">
+        <f t="shared" si="3"/>
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>95.85</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="46">
+        <f t="shared" si="3"/>
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>95.85</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" s="46">
+        <f t="shared" si="3"/>
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>95.4</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="46">
+        <f t="shared" si="3"/>
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>95.4</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" s="46">
+        <f t="shared" si="3"/>
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>95.4</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="46">
+        <f t="shared" si="3"/>
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" s="46">
+        <f t="shared" si="3"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="46">
+        <f t="shared" ref="B259:B322" si="4">PERCENTRANK(A:A,A259)</f>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>94.05</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" s="46">
+        <f t="shared" si="4"/>
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>94.05</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="46">
+        <f t="shared" si="4"/>
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>94.05</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" s="46">
+        <f t="shared" si="4"/>
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>93.6</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="46">
+        <f t="shared" si="4"/>
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>93.6</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" s="46">
+        <f t="shared" si="4"/>
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>93.15</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="46">
+        <f t="shared" si="4"/>
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" s="46">
+        <f t="shared" si="4"/>
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="46">
+        <f t="shared" si="4"/>
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="46">
+        <f t="shared" si="4"/>
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="46">
+        <f t="shared" si="4"/>
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>92.25</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>91.35</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>90.9</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" s="46">
+        <f t="shared" si="4"/>
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>90.45</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301" s="46">
+        <f t="shared" si="4"/>
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>90.45</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302" s="46">
+        <f t="shared" si="4"/>
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" s="46">
+        <f t="shared" ref="B323:B386" si="5">PERCENTRANK(A:A,A323)</f>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" s="46">
+        <f t="shared" si="5"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" s="46">
+        <f t="shared" si="5"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" s="46">
+        <f t="shared" si="5"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" s="46">
+        <f t="shared" si="5"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>89.55</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" s="46">
+        <f t="shared" si="5"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>89.1</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" s="46">
+        <f t="shared" si="5"/>
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>89.1</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" s="46">
+        <f t="shared" si="5"/>
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>89.1</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" s="46">
+        <f t="shared" si="5"/>
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>88.2</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" s="46">
+        <f t="shared" si="5"/>
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>87.75</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343" s="46">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>87.3</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" s="46">
+        <f t="shared" si="5"/>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>87.3</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345" s="46">
+        <f t="shared" si="5"/>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>87.3</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346" s="46">
+        <f t="shared" si="5"/>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>86.85</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347" s="46">
+        <f t="shared" si="5"/>
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>86.85</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" s="46">
+        <f t="shared" si="5"/>
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349" s="46">
+        <f t="shared" si="5"/>
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" s="46">
+        <f t="shared" si="5"/>
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>85.95</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" s="46">
+        <f t="shared" si="5"/>
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>85.95</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352" s="46">
+        <f t="shared" si="5"/>
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>85.95</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" s="46">
+        <f t="shared" si="5"/>
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>85.95</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354" s="46">
+        <f t="shared" si="5"/>
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>85.95</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355" s="46">
+        <f t="shared" si="5"/>
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" s="46">
+        <f t="shared" si="5"/>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>85.05</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374" s="46">
+        <f t="shared" si="5"/>
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>85.05</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375" s="46">
+        <f t="shared" si="5"/>
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>85.05</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376" s="46">
+        <f t="shared" si="5"/>
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>84.6</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377" s="46">
+        <f t="shared" si="5"/>
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378" s="46">
+        <f t="shared" si="5"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379" s="46">
+        <f t="shared" si="5"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380" s="46">
+        <f t="shared" si="5"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381" s="46">
+        <f t="shared" si="5"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382" s="46">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383" s="46">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" s="46">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" s="46">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" s="46">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" s="46">
+        <f t="shared" ref="B387:B423" si="6">PERCENTRANK(A:A,A387)</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" s="46">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" s="46">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" s="46">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" s="46">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" s="46">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" s="46">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" s="46">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
         <v>83.25</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" s="46">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
         <v>82.35</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" s="46">
+        <f t="shared" si="6"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
         <v>81.45</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" s="46">
+        <f t="shared" si="6"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
         <v>81</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" s="46">
+        <f t="shared" si="6"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
         <v>81</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" s="46">
+        <f t="shared" si="6"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
         <v>81</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400" s="46">
+        <f t="shared" si="6"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B401" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B402" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B403" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B404" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B405" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B406" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B407" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B408" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B409" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B410" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B411" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>78.75</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B412" s="46">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>77.849999999999994</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B413" s="46">
+        <f t="shared" si="6"/>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B414" s="46">
+        <f t="shared" si="6"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B415" s="46">
+        <f t="shared" si="6"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B416" s="46">
+        <f t="shared" si="6"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B417" s="46">
+        <f t="shared" si="6"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B418" s="46">
+        <f t="shared" si="6"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>74.7</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B419" s="46">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B420" s="46">
+        <f t="shared" si="6"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B421" s="46">
+        <f t="shared" si="6"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B422" s="46">
+        <f t="shared" si="6"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
         <v>72.45</v>
+      </c>
+      <c r="B423" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28491,11 +30185,11 @@
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="M2" s="18" t="s">
+      <c r="G2" s="43"/>
+      <c r="M2" s="27" t="s">
         <v>451</v>
       </c>
     </row>
@@ -28508,12 +30202,12 @@
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="13"/>
-      <c r="M3" s="18"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -28524,10 +30218,10 @@
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="13"/>
-      <c r="M4" s="18"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -28538,16 +30232,16 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="13"/>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -28558,12 +30252,12 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="13"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="29" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="30" t="s">
         <v>454</v>
       </c>
     </row>
@@ -28576,12 +30270,12 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="13"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -28592,10 +30286,10 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="13"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -28606,16 +30300,16 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="13"/>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="30"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -28626,12 +30320,12 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="13"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="29" t="s">
+      <c r="K10" s="41"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="30" t="s">
         <v>458</v>
       </c>
     </row>
@@ -28644,11 +30338,11 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="M11" s="40"/>
+      <c r="G11" s="42"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -28659,9 +30353,9 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="37"/>
-      <c r="M12" s="40"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -28672,15 +30366,15 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="K13" s="41" t="s">
+      <c r="G13" s="42"/>
+      <c r="K13" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="30"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -28692,11 +30386,11 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="37"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="29" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="42"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="30" t="s">
         <v>462</v>
       </c>
     </row>
@@ -28711,7 +30405,7 @@
       <c r="D15" s="14"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -28722,7 +30416,7 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -28733,15 +30427,15 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="30"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -28752,11 +30446,11 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="29" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="30" t="s">
         <v>464</v>
       </c>
     </row>
@@ -28769,11 +30463,11 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="M19" s="40"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -28784,10 +30478,10 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="27"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="40"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -28798,12 +30492,12 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="27" t="s">
         <v>458</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="M21" s="30"/>
+      <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -28814,8 +30508,8 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -28826,8 +30520,8 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="27" t="s">
         <v>462</v>
       </c>
     </row>
@@ -28840,8 +30534,8 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -28852,8 +30546,8 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="42"/>
+      <c r="G25" s="27" t="s">
         <v>465</v>
       </c>
     </row>
@@ -28866,8 +30560,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -32841,6 +34535,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="M18:M21"/>
     <mergeCell ref="K17:L18"/>
     <mergeCell ref="G5:G6"/>
@@ -32857,22 +34567,6 @@
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Standard Deviation/Workbook Standard deviation.xlsx
+++ b/Standard Deviation/Workbook Standard deviation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Standard Deviation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C898DA-52E5-4B1B-8355-13916657E3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAE3A6A-B29F-47E5-A2F8-8C412CE2FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2179,21 +2179,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2217,6 +2202,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2242,15 +2242,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2263,8 +2254,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2556,7 +2556,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2594,7 +2594,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3E5C50C6-B9FE-4816-A202-4B126BCB5F01}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Weight</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2624,7 +2624,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2662,7 +2662,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{CB8F2240-D590-4CF7-A907-62E116E7DF8B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Weight</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16256,7 +16256,7 @@
   <dimension ref="A1:O423"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16295,10 +16295,10 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
@@ -16538,17 +16538,17 @@
       <c r="G7" s="8">
         <v>30.945865560000001</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="19" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -16572,21 +16572,21 @@
       <c r="G8" s="8">
         <v>26.035502959999999</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="20" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="29" t="s">
         <v>438</v>
       </c>
     </row>
@@ -16612,13 +16612,13 @@
       <c r="G9" s="8">
         <v>25.325443790000001</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -16642,21 +16642,21 @@
       <c r="G10" s="8">
         <v>25</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="18" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="25" t="s">
         <v>443</v>
       </c>
     </row>
@@ -16682,13 +16682,13 @@
       <c r="G11" s="8">
         <v>25.910034599999999</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -26168,12 +26168,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I7:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="K7:O7"/>
@@ -26182,6 +26176,12 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I7:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30156,14 +30156,14 @@
   <dimension ref="A1:M423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
@@ -30193,18 +30193,18 @@
         <v>162</v>
       </c>
       <c r="C2" s="14" t="str">
-        <f>VLOOKUP(B2,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" ref="C2:C65" si="0">VLOOKUP(B2,$F$17:$G$26,2,TRUE)</f>
         <v>Very High</v>
       </c>
       <c r="D2" s="14">
-        <f>(B2-$G$3)/$G$5</f>
+        <f t="shared" ref="D2:D65" si="1">(B2-$G$3)/$G$5</f>
         <v>5.0573965230149227</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="M2" s="19" t="s">
+      <c r="G2" s="43"/>
+      <c r="M2" s="27" t="s">
         <v>451</v>
       </c>
     </row>
@@ -30216,22 +30216,22 @@
         <v>130.05000000000001</v>
       </c>
       <c r="C3" s="14" t="str">
-        <f>VLOOKUP(B3,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D3" s="14">
-        <f>(B3-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>2.4733290840215245</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="42">
         <f>AVERAGE(B:B)</f>
         <v>99.469194312796134</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="M3" s="19"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -30241,17 +30241,17 @@
         <v>130.05000000000001</v>
       </c>
       <c r="C4" s="14" t="str">
-        <f>VLOOKUP(B4,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D4" s="14">
-        <f>(B4-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>2.4733290840215245</v>
       </c>
       <c r="F4" s="36"/>
-      <c r="G4" s="38"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="13"/>
-      <c r="M4" s="19"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -30261,26 +30261,26 @@
         <v>128.25</v>
       </c>
       <c r="C5" s="14" t="str">
-        <f>VLOOKUP(B5,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D5" s="14">
-        <f>(B5-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>2.3277478198528812</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="42">
         <f>STDEV(B:B)</f>
         <v>12.364228393530565</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="19"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -30290,18 +30290,18 @@
         <v>125.55</v>
       </c>
       <c r="C6" s="14" t="str">
-        <f>VLOOKUP(B6,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D6" s="14">
-        <f>(B6-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>2.1093759235999179</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="13"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="43"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="30" t="s">
         <v>454</v>
       </c>
@@ -30314,22 +30314,22 @@
         <v>123.75</v>
       </c>
       <c r="C7" s="14" t="str">
-        <f>VLOOKUP(B7,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D7" s="14">
-        <f>(B7-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.9637946594312758</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="42">
         <f>$G$3-(G5*3)</f>
         <v>62.37650913220444</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="M7" s="41"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -30339,17 +30339,17 @@
         <v>123.75</v>
       </c>
       <c r="C8" s="14" t="str">
-        <f>VLOOKUP(B8,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D8" s="14">
-        <f>(B8-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.9637946594312758</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="38"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="13"/>
-      <c r="M8" s="41"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -30359,25 +30359,25 @@
         <v>123.75</v>
       </c>
       <c r="C9" s="14" t="str">
-        <f>VLOOKUP(B9,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D9" s="14">
-        <f>(B9-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.9637946594312758</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="42">
         <f>$G$3-G5</f>
         <v>87.104965919265567</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="L9" s="43"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -30388,18 +30388,18 @@
         <v>121.5</v>
       </c>
       <c r="C10" s="14" t="str">
-        <f>VLOOKUP(B10,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D10" s="14">
-        <f>(B10-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.781818079220473</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="13"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="43"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="30" t="s">
         <v>458</v>
       </c>
@@ -30412,21 +30412,21 @@
         <v>121.5</v>
       </c>
       <c r="C11" s="14" t="str">
-        <f>VLOOKUP(B11,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D11" s="14">
-        <f>(B11-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.781818079220473</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="42">
         <f>$G$3+G5</f>
         <v>111.8334227063267</v>
       </c>
-      <c r="M11" s="41"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -30436,16 +30436,16 @@
         <v>121.5</v>
       </c>
       <c r="C12" s="14" t="str">
-        <f>VLOOKUP(B12,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D12" s="14">
-        <f>(B12-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.781818079220473</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="38"/>
-      <c r="M12" s="41"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -30455,24 +30455,24 @@
         <v>121.5</v>
       </c>
       <c r="C13" s="14" t="str">
-        <f>VLOOKUP(B13,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D13" s="14">
-        <f>(B13-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.781818079220473</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="42">
         <f>$G$3+(G5*3)</f>
         <v>136.56187949338783</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="L13" s="43"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -30483,18 +30483,18 @@
         <v>121.5</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>VLOOKUP(B14,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D14" s="14">
-        <f>(B14-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.781818079220473</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="38"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="43"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="42"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="30" t="s">
         <v>462</v>
       </c>
@@ -30507,16 +30507,16 @@
         <v>121.5</v>
       </c>
       <c r="C15" s="14" t="str">
-        <f>VLOOKUP(B15,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D15" s="14">
-        <f>(B15-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.781818079220473</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="41"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -30526,14 +30526,14 @@
         <v>120.6</v>
       </c>
       <c r="C16" s="14" t="str">
-        <f>VLOOKUP(B16,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D16" s="14">
-        <f>(B16-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.7090274471361515</v>
       </c>
-      <c r="M16" s="41"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -30543,23 +30543,23 @@
         <v>120.6</v>
       </c>
       <c r="C17" s="14" t="str">
-        <f>VLOOKUP(B17,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D17" s="14">
-        <f>(B17-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.7090274471361515</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="27">
         <v>0</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -30570,17 +30570,17 @@
         <v>119.25</v>
       </c>
       <c r="C18" s="14" t="str">
-        <f>VLOOKUP(B18,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D18" s="14">
-        <f>(B18-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.5998414990096703</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="43"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="30" t="s">
         <v>464</v>
       </c>
@@ -30593,21 +30593,21 @@
         <v>119.25</v>
       </c>
       <c r="C19" s="14" t="str">
-        <f>VLOOKUP(B19,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D19" s="14">
-        <f>(B19-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.5998414990096703</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="42">
         <f>G7</f>
         <v>62.37650913220444</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="M19" s="41"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -30617,17 +30617,17 @@
         <v>119.25</v>
       </c>
       <c r="C20" s="14" t="str">
-        <f>VLOOKUP(B20,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D20" s="14">
-        <f>(B20-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.5998414990096703</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="19"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="27"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="41"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -30637,18 +30637,18 @@
         <v>119.25</v>
       </c>
       <c r="C21" s="14" t="str">
-        <f>VLOOKUP(B21,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D21" s="14">
-        <f>(B21-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.5998414990096703</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="42">
         <f>G9</f>
         <v>87.104965919265567</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="27" t="s">
         <v>458</v>
       </c>
       <c r="K21" s="3"/>
@@ -30662,15 +30662,15 @@
         <v>119.25</v>
       </c>
       <c r="C22" s="14" t="str">
-        <f>VLOOKUP(B22,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D22" s="14">
-        <f>(B22-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.5998414990096703</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -30680,18 +30680,18 @@
         <v>119.25</v>
       </c>
       <c r="C23" s="14" t="str">
-        <f>VLOOKUP(B23,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D23" s="14">
-        <f>(B23-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.5998414990096703</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="42">
         <f>G11</f>
         <v>111.8334227063267</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="27" t="s">
         <v>462</v>
       </c>
     </row>
@@ -30703,15 +30703,15 @@
         <v>119.25</v>
       </c>
       <c r="C24" s="14" t="str">
-        <f>VLOOKUP(B24,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D24" s="14">
-        <f>(B24-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.5998414990096703</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -30721,18 +30721,18 @@
         <v>117</v>
       </c>
       <c r="C25" s="14" t="str">
-        <f>VLOOKUP(B25,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D25" s="14">
-        <f>(B25-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="42">
         <f>G13</f>
         <v>136.56187949338783</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="27" t="s">
         <v>465</v>
       </c>
     </row>
@@ -30744,15 +30744,15 @@
         <v>117</v>
       </c>
       <c r="C26" s="14" t="str">
-        <f>VLOOKUP(B26,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D26" s="14">
-        <f>(B26-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="19"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -30762,11 +30762,11 @@
         <v>117</v>
       </c>
       <c r="C27" s="14" t="str">
-        <f>VLOOKUP(B27,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D27" s="14">
-        <f>(B27-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30778,11 +30778,11 @@
         <v>117</v>
       </c>
       <c r="C28" s="14" t="str">
-        <f>VLOOKUP(B28,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D28" s="14">
-        <f>(B28-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30794,11 +30794,11 @@
         <v>117</v>
       </c>
       <c r="C29" s="14" t="str">
-        <f>VLOOKUP(B29,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D29" s="14">
-        <f>(B29-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30810,11 +30810,11 @@
         <v>117</v>
       </c>
       <c r="C30" s="14" t="str">
-        <f>VLOOKUP(B30,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D30" s="14">
-        <f>(B30-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30826,11 +30826,11 @@
         <v>117</v>
       </c>
       <c r="C31" s="14" t="str">
-        <f>VLOOKUP(B31,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D31" s="14">
-        <f>(B31-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30842,11 +30842,11 @@
         <v>117</v>
       </c>
       <c r="C32" s="14" t="str">
-        <f>VLOOKUP(B32,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D32" s="14">
-        <f>(B32-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30858,11 +30858,11 @@
         <v>117</v>
       </c>
       <c r="C33" s="14" t="str">
-        <f>VLOOKUP(B33,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D33" s="14">
-        <f>(B33-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30874,11 +30874,11 @@
         <v>117</v>
       </c>
       <c r="C34" s="14" t="str">
-        <f>VLOOKUP(B34,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D34" s="14">
-        <f>(B34-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30890,11 +30890,11 @@
         <v>117</v>
       </c>
       <c r="C35" s="14" t="str">
-        <f>VLOOKUP(B35,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D35" s="14">
-        <f>(B35-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30906,11 +30906,11 @@
         <v>117</v>
       </c>
       <c r="C36" s="14" t="str">
-        <f>VLOOKUP(B36,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D36" s="14">
-        <f>(B36-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30922,11 +30922,11 @@
         <v>117</v>
       </c>
       <c r="C37" s="14" t="str">
-        <f>VLOOKUP(B37,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D37" s="14">
-        <f>(B37-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.4178649187988674</v>
       </c>
     </row>
@@ -30938,11 +30938,11 @@
         <v>116.1</v>
       </c>
       <c r="C38" s="14" t="str">
-        <f>VLOOKUP(B38,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D38" s="14">
-        <f>(B38-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.345074286714546</v>
       </c>
     </row>
@@ -30954,11 +30954,11 @@
         <v>115.65</v>
       </c>
       <c r="C39" s="14" t="str">
-        <f>VLOOKUP(B39,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D39" s="14">
-        <f>(B39-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.3086789706723863</v>
       </c>
     </row>
@@ -30970,11 +30970,11 @@
         <v>114.75</v>
       </c>
       <c r="C40" s="14" t="str">
-        <f>VLOOKUP(B40,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D40" s="14">
-        <f>(B40-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -30986,11 +30986,11 @@
         <v>114.75</v>
       </c>
       <c r="C41" s="14" t="str">
-        <f>VLOOKUP(B41,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D41" s="14">
-        <f>(B41-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31002,11 +31002,11 @@
         <v>114.75</v>
       </c>
       <c r="C42" s="14" t="str">
-        <f>VLOOKUP(B42,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D42" s="14">
-        <f>(B42-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31018,11 +31018,11 @@
         <v>114.75</v>
       </c>
       <c r="C43" s="14" t="str">
-        <f>VLOOKUP(B43,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D43" s="14">
-        <f>(B43-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31034,11 +31034,11 @@
         <v>114.75</v>
       </c>
       <c r="C44" s="14" t="str">
-        <f>VLOOKUP(B44,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D44" s="14">
-        <f>(B44-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31050,11 +31050,11 @@
         <v>114.75</v>
       </c>
       <c r="C45" s="14" t="str">
-        <f>VLOOKUP(B45,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D45" s="14">
-        <f>(B45-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31066,11 +31066,11 @@
         <v>114.75</v>
       </c>
       <c r="C46" s="14" t="str">
-        <f>VLOOKUP(B46,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D46" s="14">
-        <f>(B46-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31082,11 +31082,11 @@
         <v>114.75</v>
       </c>
       <c r="C47" s="14" t="str">
-        <f>VLOOKUP(B47,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D47" s="14">
-        <f>(B47-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31098,11 +31098,11 @@
         <v>114.75</v>
       </c>
       <c r="C48" s="14" t="str">
-        <f>VLOOKUP(B48,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D48" s="14">
-        <f>(B48-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31114,11 +31114,11 @@
         <v>114.75</v>
       </c>
       <c r="C49" s="14" t="str">
-        <f>VLOOKUP(B49,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D49" s="14">
-        <f>(B49-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31130,11 +31130,11 @@
         <v>114.75</v>
       </c>
       <c r="C50" s="14" t="str">
-        <f>VLOOKUP(B50,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D50" s="14">
-        <f>(B50-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31146,11 +31146,11 @@
         <v>114.75</v>
       </c>
       <c r="C51" s="14" t="str">
-        <f>VLOOKUP(B51,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D51" s="14">
-        <f>(B51-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.2358883385880646</v>
       </c>
     </row>
@@ -31162,11 +31162,11 @@
         <v>113.85</v>
       </c>
       <c r="C52" s="14" t="str">
-        <f>VLOOKUP(B52,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D52" s="14">
-        <f>(B52-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.1630977065037431</v>
       </c>
     </row>
@@ -31178,11 +31178,11 @@
         <v>113.85</v>
       </c>
       <c r="C53" s="14" t="str">
-        <f>VLOOKUP(B53,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D53" s="14">
-        <f>(B53-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.1630977065037431</v>
       </c>
     </row>
@@ -31194,11 +31194,11 @@
         <v>113.4</v>
       </c>
       <c r="C54" s="14" t="str">
-        <f>VLOOKUP(B54,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D54" s="14">
-        <f>(B54-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.1267023904615834</v>
       </c>
     </row>
@@ -31210,11 +31210,11 @@
         <v>112.95</v>
       </c>
       <c r="C55" s="14" t="str">
-        <f>VLOOKUP(B55,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D55" s="14">
-        <f>(B55-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0903070744194228</v>
       </c>
     </row>
@@ -31226,11 +31226,11 @@
         <v>112.95</v>
       </c>
       <c r="C56" s="14" t="str">
-        <f>VLOOKUP(B56,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D56" s="14">
-        <f>(B56-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0903070744194228</v>
       </c>
     </row>
@@ -31242,11 +31242,11 @@
         <v>112.95</v>
       </c>
       <c r="C57" s="14" t="str">
-        <f>VLOOKUP(B57,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D57" s="14">
-        <f>(B57-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0903070744194228</v>
       </c>
     </row>
@@ -31258,11 +31258,11 @@
         <v>112.5</v>
       </c>
       <c r="C58" s="14" t="str">
-        <f>VLOOKUP(B58,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D58" s="14">
-        <f>(B58-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31274,11 +31274,11 @@
         <v>112.5</v>
       </c>
       <c r="C59" s="14" t="str">
-        <f>VLOOKUP(B59,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D59" s="14">
-        <f>(B59-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31290,11 +31290,11 @@
         <v>112.5</v>
       </c>
       <c r="C60" s="14" t="str">
-        <f>VLOOKUP(B60,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D60" s="14">
-        <f>(B60-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31306,11 +31306,11 @@
         <v>112.5</v>
       </c>
       <c r="C61" s="14" t="str">
-        <f>VLOOKUP(B61,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D61" s="14">
-        <f>(B61-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31322,11 +31322,11 @@
         <v>112.5</v>
       </c>
       <c r="C62" s="14" t="str">
-        <f>VLOOKUP(B62,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D62" s="14">
-        <f>(B62-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31338,11 +31338,11 @@
         <v>112.5</v>
       </c>
       <c r="C63" s="14" t="str">
-        <f>VLOOKUP(B63,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D63" s="14">
-        <f>(B63-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31354,11 +31354,11 @@
         <v>112.5</v>
       </c>
       <c r="C64" s="14" t="str">
-        <f>VLOOKUP(B64,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D64" s="14">
-        <f>(B64-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31370,11 +31370,11 @@
         <v>112.5</v>
       </c>
       <c r="C65" s="14" t="str">
-        <f>VLOOKUP(B65,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="D65" s="14">
-        <f>(B65-$G$3)/$G$5</f>
+        <f t="shared" si="1"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31386,11 +31386,11 @@
         <v>112.5</v>
       </c>
       <c r="C66" s="14" t="str">
-        <f>VLOOKUP(B66,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" ref="C66:C129" si="2">VLOOKUP(B66,$F$17:$G$26,2,TRUE)</f>
         <v>High</v>
       </c>
       <c r="D66" s="14">
-        <f>(B66-$G$3)/$G$5</f>
+        <f t="shared" ref="D66:D129" si="3">(B66-$G$3)/$G$5</f>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31402,11 +31402,11 @@
         <v>112.5</v>
       </c>
       <c r="C67" s="14" t="str">
-        <f>VLOOKUP(B67,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D67" s="14">
-        <f>(B67-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31418,11 +31418,11 @@
         <v>112.5</v>
       </c>
       <c r="C68" s="14" t="str">
-        <f>VLOOKUP(B68,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D68" s="14">
-        <f>(B68-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31434,11 +31434,11 @@
         <v>112.5</v>
       </c>
       <c r="C69" s="14" t="str">
-        <f>VLOOKUP(B69,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D69" s="14">
-        <f>(B69-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31450,11 +31450,11 @@
         <v>112.5</v>
       </c>
       <c r="C70" s="14" t="str">
-        <f>VLOOKUP(B70,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D70" s="14">
-        <f>(B70-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31466,11 +31466,11 @@
         <v>112.5</v>
       </c>
       <c r="C71" s="14" t="str">
-        <f>VLOOKUP(B71,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D71" s="14">
-        <f>(B71-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31482,11 +31482,11 @@
         <v>112.5</v>
       </c>
       <c r="C72" s="14" t="str">
-        <f>VLOOKUP(B72,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D72" s="14">
-        <f>(B72-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31498,11 +31498,11 @@
         <v>112.5</v>
       </c>
       <c r="C73" s="14" t="str">
-        <f>VLOOKUP(B73,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D73" s="14">
-        <f>(B73-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31514,11 +31514,11 @@
         <v>112.5</v>
       </c>
       <c r="C74" s="14" t="str">
-        <f>VLOOKUP(B74,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D74" s="14">
-        <f>(B74-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31530,11 +31530,11 @@
         <v>112.5</v>
       </c>
       <c r="C75" s="14" t="str">
-        <f>VLOOKUP(B75,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D75" s="14">
-        <f>(B75-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31546,11 +31546,11 @@
         <v>112.5</v>
       </c>
       <c r="C76" s="14" t="str">
-        <f>VLOOKUP(B76,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D76" s="14">
-        <f>(B76-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31562,11 +31562,11 @@
         <v>112.5</v>
       </c>
       <c r="C77" s="14" t="str">
-        <f>VLOOKUP(B77,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D77" s="14">
-        <f>(B77-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31578,11 +31578,11 @@
         <v>112.5</v>
       </c>
       <c r="C78" s="14" t="str">
-        <f>VLOOKUP(B78,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D78" s="14">
-        <f>(B78-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0539117583772619</v>
       </c>
     </row>
@@ -31594,11 +31594,11 @@
         <v>112.05</v>
       </c>
       <c r="C79" s="14" t="str">
-        <f>VLOOKUP(B79,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>High</v>
       </c>
       <c r="D79" s="14">
-        <f>(B79-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0175164423351011</v>
       </c>
     </row>
@@ -31610,11 +31610,11 @@
         <v>111.6</v>
       </c>
       <c r="C80" s="14" t="str">
-        <f>VLOOKUP(B80,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D80" s="14">
-        <f>(B80-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.98112112629294035</v>
       </c>
     </row>
@@ -31626,11 +31626,11 @@
         <v>111.6</v>
       </c>
       <c r="C81" s="14" t="str">
-        <f>VLOOKUP(B81,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D81" s="14">
-        <f>(B81-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.98112112629294035</v>
       </c>
     </row>
@@ -31642,11 +31642,11 @@
         <v>110.7</v>
       </c>
       <c r="C82" s="14" t="str">
-        <f>VLOOKUP(B82,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D82" s="14">
-        <f>(B82-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.90833049420861989</v>
       </c>
     </row>
@@ -31658,11 +31658,11 @@
         <v>110.25</v>
       </c>
       <c r="C83" s="14" t="str">
-        <f>VLOOKUP(B83,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D83" s="14">
-        <f>(B83-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31674,11 +31674,11 @@
         <v>110.25</v>
       </c>
       <c r="C84" s="14" t="str">
-        <f>VLOOKUP(B84,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D84" s="14">
-        <f>(B84-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31690,11 +31690,11 @@
         <v>110.25</v>
       </c>
       <c r="C85" s="14" t="str">
-        <f>VLOOKUP(B85,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D85" s="14">
-        <f>(B85-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31706,11 +31706,11 @@
         <v>110.25</v>
       </c>
       <c r="C86" s="14" t="str">
-        <f>VLOOKUP(B86,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D86" s="14">
-        <f>(B86-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31722,11 +31722,11 @@
         <v>110.25</v>
       </c>
       <c r="C87" s="14" t="str">
-        <f>VLOOKUP(B87,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D87" s="14">
-        <f>(B87-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31738,11 +31738,11 @@
         <v>110.25</v>
       </c>
       <c r="C88" s="14" t="str">
-        <f>VLOOKUP(B88,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D88" s="14">
-        <f>(B88-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31754,11 +31754,11 @@
         <v>110.25</v>
       </c>
       <c r="C89" s="14" t="str">
-        <f>VLOOKUP(B89,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D89" s="14">
-        <f>(B89-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31770,11 +31770,11 @@
         <v>110.25</v>
       </c>
       <c r="C90" s="14" t="str">
-        <f>VLOOKUP(B90,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D90" s="14">
-        <f>(B90-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31786,11 +31786,11 @@
         <v>110.25</v>
       </c>
       <c r="C91" s="14" t="str">
-        <f>VLOOKUP(B91,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D91" s="14">
-        <f>(B91-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31802,11 +31802,11 @@
         <v>110.25</v>
       </c>
       <c r="C92" s="14" t="str">
-        <f>VLOOKUP(B92,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D92" s="14">
-        <f>(B92-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31818,11 +31818,11 @@
         <v>110.25</v>
       </c>
       <c r="C93" s="14" t="str">
-        <f>VLOOKUP(B93,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D93" s="14">
-        <f>(B93-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31834,11 +31834,11 @@
         <v>110.25</v>
       </c>
       <c r="C94" s="14" t="str">
-        <f>VLOOKUP(B94,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D94" s="14">
-        <f>(B94-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31850,11 +31850,11 @@
         <v>110.25</v>
       </c>
       <c r="C95" s="14" t="str">
-        <f>VLOOKUP(B95,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D95" s="14">
-        <f>(B95-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31866,11 +31866,11 @@
         <v>110.25</v>
       </c>
       <c r="C96" s="14" t="str">
-        <f>VLOOKUP(B96,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D96" s="14">
-        <f>(B96-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31882,11 +31882,11 @@
         <v>110.25</v>
       </c>
       <c r="C97" s="14" t="str">
-        <f>VLOOKUP(B97,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D97" s="14">
-        <f>(B97-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31898,11 +31898,11 @@
         <v>110.25</v>
       </c>
       <c r="C98" s="14" t="str">
-        <f>VLOOKUP(B98,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D98" s="14">
-        <f>(B98-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31914,11 +31914,11 @@
         <v>110.25</v>
       </c>
       <c r="C99" s="14" t="str">
-        <f>VLOOKUP(B99,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D99" s="14">
-        <f>(B99-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31930,11 +31930,11 @@
         <v>110.25</v>
       </c>
       <c r="C100" s="14" t="str">
-        <f>VLOOKUP(B100,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D100" s="14">
-        <f>(B100-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31946,11 +31946,11 @@
         <v>110.25</v>
       </c>
       <c r="C101" s="14" t="str">
-        <f>VLOOKUP(B101,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D101" s="14">
-        <f>(B101-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31962,11 +31962,11 @@
         <v>110.25</v>
       </c>
       <c r="C102" s="14" t="str">
-        <f>VLOOKUP(B102,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D102" s="14">
-        <f>(B102-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.87193517816645916</v>
       </c>
     </row>
@@ -31978,11 +31978,11 @@
         <v>108.9</v>
       </c>
       <c r="C103" s="14" t="str">
-        <f>VLOOKUP(B103,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D103" s="14">
-        <f>(B103-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.76274923003997797</v>
       </c>
     </row>
@@ -31994,11 +31994,11 @@
         <v>108.45</v>
       </c>
       <c r="C104" s="14" t="str">
-        <f>VLOOKUP(B104,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D104" s="14">
-        <f>(B104-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.72635391399781712</v>
       </c>
     </row>
@@ -32010,11 +32010,11 @@
         <v>108.45</v>
       </c>
       <c r="C105" s="14" t="str">
-        <f>VLOOKUP(B105,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D105" s="14">
-        <f>(B105-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.72635391399781712</v>
       </c>
     </row>
@@ -32026,11 +32026,11 @@
         <v>108</v>
       </c>
       <c r="C106" s="14" t="str">
-        <f>VLOOKUP(B106,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D106" s="14">
-        <f>(B106-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32042,11 +32042,11 @@
         <v>108</v>
       </c>
       <c r="C107" s="14" t="str">
-        <f>VLOOKUP(B107,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D107" s="14">
-        <f>(B107-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32058,11 +32058,11 @@
         <v>108</v>
       </c>
       <c r="C108" s="14" t="str">
-        <f>VLOOKUP(B108,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D108" s="14">
-        <f>(B108-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32074,11 +32074,11 @@
         <v>108</v>
       </c>
       <c r="C109" s="14" t="str">
-        <f>VLOOKUP(B109,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D109" s="14">
-        <f>(B109-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32090,11 +32090,11 @@
         <v>108</v>
       </c>
       <c r="C110" s="14" t="str">
-        <f>VLOOKUP(B110,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D110" s="14">
-        <f>(B110-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32106,11 +32106,11 @@
         <v>108</v>
       </c>
       <c r="C111" s="14" t="str">
-        <f>VLOOKUP(B111,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D111" s="14">
-        <f>(B111-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32122,11 +32122,11 @@
         <v>108</v>
       </c>
       <c r="C112" s="14" t="str">
-        <f>VLOOKUP(B112,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D112" s="14">
-        <f>(B112-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32138,11 +32138,11 @@
         <v>108</v>
       </c>
       <c r="C113" s="14" t="str">
-        <f>VLOOKUP(B113,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D113" s="14">
-        <f>(B113-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32154,11 +32154,11 @@
         <v>108</v>
       </c>
       <c r="C114" s="14" t="str">
-        <f>VLOOKUP(B114,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D114" s="14">
-        <f>(B114-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32170,11 +32170,11 @@
         <v>108</v>
       </c>
       <c r="C115" s="14" t="str">
-        <f>VLOOKUP(B115,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D115" s="14">
-        <f>(B115-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32186,11 +32186,11 @@
         <v>108</v>
       </c>
       <c r="C116" s="14" t="str">
-        <f>VLOOKUP(B116,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D116" s="14">
-        <f>(B116-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32202,11 +32202,11 @@
         <v>108</v>
       </c>
       <c r="C117" s="14" t="str">
-        <f>VLOOKUP(B117,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D117" s="14">
-        <f>(B117-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32218,11 +32218,11 @@
         <v>108</v>
       </c>
       <c r="C118" s="14" t="str">
-        <f>VLOOKUP(B118,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D118" s="14">
-        <f>(B118-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32234,11 +32234,11 @@
         <v>108</v>
       </c>
       <c r="C119" s="14" t="str">
-        <f>VLOOKUP(B119,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D119" s="14">
-        <f>(B119-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32250,11 +32250,11 @@
         <v>108</v>
       </c>
       <c r="C120" s="14" t="str">
-        <f>VLOOKUP(B120,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D120" s="14">
-        <f>(B120-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32266,11 +32266,11 @@
         <v>108</v>
       </c>
       <c r="C121" s="14" t="str">
-        <f>VLOOKUP(B121,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D121" s="14">
-        <f>(B121-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32282,11 +32282,11 @@
         <v>108</v>
       </c>
       <c r="C122" s="14" t="str">
-        <f>VLOOKUP(B122,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D122" s="14">
-        <f>(B122-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32298,11 +32298,11 @@
         <v>108</v>
       </c>
       <c r="C123" s="14" t="str">
-        <f>VLOOKUP(B123,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D123" s="14">
-        <f>(B123-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32314,11 +32314,11 @@
         <v>108</v>
       </c>
       <c r="C124" s="14" t="str">
-        <f>VLOOKUP(B124,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D124" s="14">
-        <f>(B124-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32330,11 +32330,11 @@
         <v>108</v>
       </c>
       <c r="C125" s="14" t="str">
-        <f>VLOOKUP(B125,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D125" s="14">
-        <f>(B125-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32346,11 +32346,11 @@
         <v>108</v>
       </c>
       <c r="C126" s="14" t="str">
-        <f>VLOOKUP(B126,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D126" s="14">
-        <f>(B126-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32362,11 +32362,11 @@
         <v>108</v>
       </c>
       <c r="C127" s="14" t="str">
-        <f>VLOOKUP(B127,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D127" s="14">
-        <f>(B127-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32378,11 +32378,11 @@
         <v>108</v>
       </c>
       <c r="C128" s="14" t="str">
-        <f>VLOOKUP(B128,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D128" s="14">
-        <f>(B128-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.68995859795565639</v>
       </c>
     </row>
@@ -32394,11 +32394,11 @@
         <v>107.55</v>
       </c>
       <c r="C129" s="14" t="str">
-        <f>VLOOKUP(B129,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>Medium</v>
       </c>
       <c r="D129" s="14">
-        <f>(B129-$G$3)/$G$5</f>
+        <f t="shared" si="3"/>
         <v>0.65356328191349555</v>
       </c>
     </row>
@@ -32410,11 +32410,11 @@
         <v>107.1</v>
       </c>
       <c r="C130" s="14" t="str">
-        <f>VLOOKUP(B130,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" ref="C130:C193" si="4">VLOOKUP(B130,$F$17:$G$26,2,TRUE)</f>
         <v>Medium</v>
       </c>
       <c r="D130" s="14">
-        <f>(B130-$G$3)/$G$5</f>
+        <f t="shared" ref="D130:D193" si="5">(B130-$G$3)/$G$5</f>
         <v>0.61716796587133482</v>
       </c>
     </row>
@@ -32426,11 +32426,11 @@
         <v>106.65</v>
       </c>
       <c r="C131" s="14" t="str">
-        <f>VLOOKUP(B131,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D131" s="14">
-        <f>(B131-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.5807726498291752</v>
       </c>
     </row>
@@ -32442,11 +32442,11 @@
         <v>106.65</v>
       </c>
       <c r="C132" s="14" t="str">
-        <f>VLOOKUP(B132,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D132" s="14">
-        <f>(B132-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.5807726498291752</v>
       </c>
     </row>
@@ -32458,11 +32458,11 @@
         <v>106.65</v>
       </c>
       <c r="C133" s="14" t="str">
-        <f>VLOOKUP(B133,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D133" s="14">
-        <f>(B133-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.5807726498291752</v>
       </c>
     </row>
@@ -32474,11 +32474,11 @@
         <v>105.75</v>
       </c>
       <c r="C134" s="14" t="str">
-        <f>VLOOKUP(B134,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D134" s="14">
-        <f>(B134-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32490,11 +32490,11 @@
         <v>105.75</v>
       </c>
       <c r="C135" s="14" t="str">
-        <f>VLOOKUP(B135,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D135" s="14">
-        <f>(B135-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32506,11 +32506,11 @@
         <v>105.75</v>
       </c>
       <c r="C136" s="14" t="str">
-        <f>VLOOKUP(B136,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D136" s="14">
-        <f>(B136-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32522,11 +32522,11 @@
         <v>105.75</v>
       </c>
       <c r="C137" s="14" t="str">
-        <f>VLOOKUP(B137,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D137" s="14">
-        <f>(B137-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32538,11 +32538,11 @@
         <v>105.75</v>
       </c>
       <c r="C138" s="14" t="str">
-        <f>VLOOKUP(B138,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D138" s="14">
-        <f>(B138-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32554,11 +32554,11 @@
         <v>105.75</v>
       </c>
       <c r="C139" s="14" t="str">
-        <f>VLOOKUP(B139,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D139" s="14">
-        <f>(B139-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32570,11 +32570,11 @@
         <v>105.75</v>
       </c>
       <c r="C140" s="14" t="str">
-        <f>VLOOKUP(B140,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D140" s="14">
-        <f>(B140-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32586,11 +32586,11 @@
         <v>105.75</v>
       </c>
       <c r="C141" s="14" t="str">
-        <f>VLOOKUP(B141,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D141" s="14">
-        <f>(B141-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32602,11 +32602,11 @@
         <v>105.75</v>
       </c>
       <c r="C142" s="14" t="str">
-        <f>VLOOKUP(B142,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D142" s="14">
-        <f>(B142-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32618,11 +32618,11 @@
         <v>105.75</v>
       </c>
       <c r="C143" s="14" t="str">
-        <f>VLOOKUP(B143,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D143" s="14">
-        <f>(B143-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32634,11 +32634,11 @@
         <v>105.75</v>
       </c>
       <c r="C144" s="14" t="str">
-        <f>VLOOKUP(B144,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D144" s="14">
-        <f>(B144-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32650,11 +32650,11 @@
         <v>105.75</v>
       </c>
       <c r="C145" s="14" t="str">
-        <f>VLOOKUP(B145,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D145" s="14">
-        <f>(B145-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32666,11 +32666,11 @@
         <v>105.75</v>
       </c>
       <c r="C146" s="14" t="str">
-        <f>VLOOKUP(B146,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D146" s="14">
-        <f>(B146-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32682,11 +32682,11 @@
         <v>105.75</v>
       </c>
       <c r="C147" s="14" t="str">
-        <f>VLOOKUP(B147,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D147" s="14">
-        <f>(B147-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32698,11 +32698,11 @@
         <v>105.75</v>
       </c>
       <c r="C148" s="14" t="str">
-        <f>VLOOKUP(B148,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D148" s="14">
-        <f>(B148-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32714,11 +32714,11 @@
         <v>105.75</v>
       </c>
       <c r="C149" s="14" t="str">
-        <f>VLOOKUP(B149,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D149" s="14">
-        <f>(B149-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32730,11 +32730,11 @@
         <v>105.75</v>
       </c>
       <c r="C150" s="14" t="str">
-        <f>VLOOKUP(B150,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D150" s="14">
-        <f>(B150-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.50798201774485363</v>
       </c>
     </row>
@@ -32746,11 +32746,11 @@
         <v>105.3</v>
       </c>
       <c r="C151" s="14" t="str">
-        <f>VLOOKUP(B151,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D151" s="14">
-        <f>(B151-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.47158670170269279</v>
       </c>
     </row>
@@ -32762,11 +32762,11 @@
         <v>105.3</v>
       </c>
       <c r="C152" s="14" t="str">
-        <f>VLOOKUP(B152,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D152" s="14">
-        <f>(B152-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.47158670170269279</v>
       </c>
     </row>
@@ -32778,11 +32778,11 @@
         <v>104.85</v>
       </c>
       <c r="C153" s="14" t="str">
-        <f>VLOOKUP(B153,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D153" s="14">
-        <f>(B153-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.435191385660532</v>
       </c>
     </row>
@@ -32794,11 +32794,11 @@
         <v>104.4</v>
       </c>
       <c r="C154" s="14" t="str">
-        <f>VLOOKUP(B154,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D154" s="14">
-        <f>(B154-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.39879606961837238</v>
       </c>
     </row>
@@ -32810,11 +32810,11 @@
         <v>103.95</v>
       </c>
       <c r="C155" s="14" t="str">
-        <f>VLOOKUP(B155,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D155" s="14">
-        <f>(B155-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.3624007535762116</v>
       </c>
     </row>
@@ -32826,11 +32826,11 @@
         <v>103.5</v>
       </c>
       <c r="C156" s="14" t="str">
-        <f>VLOOKUP(B156,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D156" s="14">
-        <f>(B156-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32842,11 +32842,11 @@
         <v>103.5</v>
       </c>
       <c r="C157" s="14" t="str">
-        <f>VLOOKUP(B157,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D157" s="14">
-        <f>(B157-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32858,11 +32858,11 @@
         <v>103.5</v>
       </c>
       <c r="C158" s="14" t="str">
-        <f>VLOOKUP(B158,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D158" s="14">
-        <f>(B158-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32874,11 +32874,11 @@
         <v>103.5</v>
       </c>
       <c r="C159" s="14" t="str">
-        <f>VLOOKUP(B159,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D159" s="14">
-        <f>(B159-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32890,11 +32890,11 @@
         <v>103.5</v>
       </c>
       <c r="C160" s="14" t="str">
-        <f>VLOOKUP(B160,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D160" s="14">
-        <f>(B160-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32906,11 +32906,11 @@
         <v>103.5</v>
       </c>
       <c r="C161" s="14" t="str">
-        <f>VLOOKUP(B161,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D161" s="14">
-        <f>(B161-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32922,11 +32922,11 @@
         <v>103.5</v>
       </c>
       <c r="C162" s="14" t="str">
-        <f>VLOOKUP(B162,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D162" s="14">
-        <f>(B162-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32938,11 +32938,11 @@
         <v>103.5</v>
       </c>
       <c r="C163" s="14" t="str">
-        <f>VLOOKUP(B163,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D163" s="14">
-        <f>(B163-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32954,11 +32954,11 @@
         <v>103.5</v>
       </c>
       <c r="C164" s="14" t="str">
-        <f>VLOOKUP(B164,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D164" s="14">
-        <f>(B164-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32970,11 +32970,11 @@
         <v>103.5</v>
       </c>
       <c r="C165" s="14" t="str">
-        <f>VLOOKUP(B165,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D165" s="14">
-        <f>(B165-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -32986,11 +32986,11 @@
         <v>103.5</v>
       </c>
       <c r="C166" s="14" t="str">
-        <f>VLOOKUP(B166,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D166" s="14">
-        <f>(B166-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -33002,11 +33002,11 @@
         <v>103.5</v>
       </c>
       <c r="C167" s="14" t="str">
-        <f>VLOOKUP(B167,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D167" s="14">
-        <f>(B167-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -33018,11 +33018,11 @@
         <v>103.5</v>
       </c>
       <c r="C168" s="14" t="str">
-        <f>VLOOKUP(B168,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D168" s="14">
-        <f>(B168-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.32600543753405081</v>
       </c>
     </row>
@@ -33034,11 +33034,11 @@
         <v>103.05</v>
       </c>
       <c r="C169" s="14" t="str">
-        <f>VLOOKUP(B169,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D169" s="14">
-        <f>(B169-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.28961012149189003</v>
       </c>
     </row>
@@ -33050,11 +33050,11 @@
         <v>102.6</v>
       </c>
       <c r="C170" s="14" t="str">
-        <f>VLOOKUP(B170,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D170" s="14">
-        <f>(B170-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.25321480544972924</v>
       </c>
     </row>
@@ -33066,11 +33066,11 @@
         <v>102.6</v>
       </c>
       <c r="C171" s="14" t="str">
-        <f>VLOOKUP(B171,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D171" s="14">
-        <f>(B171-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.25321480544972924</v>
       </c>
     </row>
@@ -33082,11 +33082,11 @@
         <v>102.6</v>
       </c>
       <c r="C172" s="14" t="str">
-        <f>VLOOKUP(B172,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D172" s="14">
-        <f>(B172-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.25321480544972924</v>
       </c>
     </row>
@@ -33098,11 +33098,11 @@
         <v>102.6</v>
       </c>
       <c r="C173" s="14" t="str">
-        <f>VLOOKUP(B173,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D173" s="14">
-        <f>(B173-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.25321480544972924</v>
       </c>
     </row>
@@ -33114,11 +33114,11 @@
         <v>102.6</v>
       </c>
       <c r="C174" s="14" t="str">
-        <f>VLOOKUP(B174,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D174" s="14">
-        <f>(B174-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.25321480544972924</v>
       </c>
     </row>
@@ -33130,11 +33130,11 @@
         <v>102.6</v>
       </c>
       <c r="C175" s="14" t="str">
-        <f>VLOOKUP(B175,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D175" s="14">
-        <f>(B175-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.25321480544972924</v>
       </c>
     </row>
@@ -33146,11 +33146,11 @@
         <v>102.6</v>
       </c>
       <c r="C176" s="14" t="str">
-        <f>VLOOKUP(B176,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D176" s="14">
-        <f>(B176-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.25321480544972924</v>
       </c>
     </row>
@@ -33162,11 +33162,11 @@
         <v>102.15</v>
       </c>
       <c r="C177" s="14" t="str">
-        <f>VLOOKUP(B177,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D177" s="14">
-        <f>(B177-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.21681948940756962</v>
       </c>
     </row>
@@ -33178,11 +33178,11 @@
         <v>101.7</v>
       </c>
       <c r="C178" s="14" t="str">
-        <f>VLOOKUP(B178,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D178" s="14">
-        <f>(B178-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.18042417336540884</v>
       </c>
     </row>
@@ -33194,11 +33194,11 @@
         <v>101.7</v>
       </c>
       <c r="C179" s="14" t="str">
-        <f>VLOOKUP(B179,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D179" s="14">
-        <f>(B179-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.18042417336540884</v>
       </c>
     </row>
@@ -33210,11 +33210,11 @@
         <v>101.7</v>
       </c>
       <c r="C180" s="14" t="str">
-        <f>VLOOKUP(B180,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D180" s="14">
-        <f>(B180-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.18042417336540884</v>
       </c>
     </row>
@@ -33226,11 +33226,11 @@
         <v>101.25</v>
       </c>
       <c r="C181" s="14" t="str">
-        <f>VLOOKUP(B181,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D181" s="14">
-        <f>(B181-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33242,11 +33242,11 @@
         <v>101.25</v>
       </c>
       <c r="C182" s="14" t="str">
-        <f>VLOOKUP(B182,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D182" s="14">
-        <f>(B182-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33258,11 +33258,11 @@
         <v>101.25</v>
       </c>
       <c r="C183" s="14" t="str">
-        <f>VLOOKUP(B183,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D183" s="14">
-        <f>(B183-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33274,11 +33274,11 @@
         <v>101.25</v>
       </c>
       <c r="C184" s="14" t="str">
-        <f>VLOOKUP(B184,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D184" s="14">
-        <f>(B184-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33290,11 +33290,11 @@
         <v>101.25</v>
       </c>
       <c r="C185" s="14" t="str">
-        <f>VLOOKUP(B185,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D185" s="14">
-        <f>(B185-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33306,11 +33306,11 @@
         <v>101.25</v>
       </c>
       <c r="C186" s="14" t="str">
-        <f>VLOOKUP(B186,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D186" s="14">
-        <f>(B186-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33322,11 +33322,11 @@
         <v>101.25</v>
       </c>
       <c r="C187" s="14" t="str">
-        <f>VLOOKUP(B187,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D187" s="14">
-        <f>(B187-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33338,11 +33338,11 @@
         <v>101.25</v>
       </c>
       <c r="C188" s="14" t="str">
-        <f>VLOOKUP(B188,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D188" s="14">
-        <f>(B188-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33354,11 +33354,11 @@
         <v>101.25</v>
       </c>
       <c r="C189" s="14" t="str">
-        <f>VLOOKUP(B189,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D189" s="14">
-        <f>(B189-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33370,11 +33370,11 @@
         <v>101.25</v>
       </c>
       <c r="C190" s="14" t="str">
-        <f>VLOOKUP(B190,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D190" s="14">
-        <f>(B190-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33386,11 +33386,11 @@
         <v>101.25</v>
       </c>
       <c r="C191" s="14" t="str">
-        <f>VLOOKUP(B191,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D191" s="14">
-        <f>(B191-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33402,11 +33402,11 @@
         <v>101.25</v>
       </c>
       <c r="C192" s="14" t="str">
-        <f>VLOOKUP(B192,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D192" s="14">
-        <f>(B192-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33418,11 +33418,11 @@
         <v>101.25</v>
       </c>
       <c r="C193" s="14" t="str">
-        <f>VLOOKUP(B193,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>Medium</v>
       </c>
       <c r="D193" s="14">
-        <f>(B193-$G$3)/$G$5</f>
+        <f t="shared" si="5"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33434,11 +33434,11 @@
         <v>101.25</v>
       </c>
       <c r="C194" s="14" t="str">
-        <f>VLOOKUP(B194,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" ref="C194:C257" si="6">VLOOKUP(B194,$F$17:$G$26,2,TRUE)</f>
         <v>Medium</v>
       </c>
       <c r="D194" s="14">
-        <f>(B194-$G$3)/$G$5</f>
+        <f t="shared" ref="D194:D257" si="7">(B194-$G$3)/$G$5</f>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33450,11 +33450,11 @@
         <v>101.25</v>
       </c>
       <c r="C195" s="14" t="str">
-        <f>VLOOKUP(B195,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D195" s="14">
-        <f>(B195-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33466,11 +33466,11 @@
         <v>101.25</v>
       </c>
       <c r="C196" s="14" t="str">
-        <f>VLOOKUP(B196,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D196" s="14">
-        <f>(B196-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>0.14402885732324805</v>
       </c>
     </row>
@@ -33482,11 +33482,11 @@
         <v>100.8</v>
       </c>
       <c r="C197" s="14" t="str">
-        <f>VLOOKUP(B197,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D197" s="14">
-        <f>(B197-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>0.10763354128108726</v>
       </c>
     </row>
@@ -33498,11 +33498,11 @@
         <v>100.35</v>
       </c>
       <c r="C198" s="14" t="str">
-        <f>VLOOKUP(B198,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D198" s="14">
-        <f>(B198-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>7.1238225238926478E-2</v>
       </c>
     </row>
@@ -33514,11 +33514,11 @@
         <v>99.9</v>
       </c>
       <c r="C199" s="14" t="str">
-        <f>VLOOKUP(B199,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D199" s="14">
-        <f>(B199-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>3.4842909196766844E-2</v>
       </c>
     </row>
@@ -33530,11 +33530,11 @@
         <v>99.9</v>
       </c>
       <c r="C200" s="14" t="str">
-        <f>VLOOKUP(B200,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D200" s="14">
-        <f>(B200-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>3.4842909196766844E-2</v>
       </c>
     </row>
@@ -33546,11 +33546,11 @@
         <v>99.9</v>
       </c>
       <c r="C201" s="14" t="str">
-        <f>VLOOKUP(B201,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D201" s="14">
-        <f>(B201-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>3.4842909196766844E-2</v>
       </c>
     </row>
@@ -33562,11 +33562,11 @@
         <v>99.45</v>
       </c>
       <c r="C202" s="14" t="str">
-        <f>VLOOKUP(B202,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D202" s="14">
-        <f>(B202-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-1.552406845393937E-3</v>
       </c>
     </row>
@@ -33578,11 +33578,11 @@
         <v>99.45</v>
       </c>
       <c r="C203" s="14" t="str">
-        <f>VLOOKUP(B203,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D203" s="14">
-        <f>(B203-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-1.552406845393937E-3</v>
       </c>
     </row>
@@ -33594,11 +33594,11 @@
         <v>99</v>
       </c>
       <c r="C204" s="14" t="str">
-        <f>VLOOKUP(B204,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D204" s="14">
-        <f>(B204-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33610,11 +33610,11 @@
         <v>99</v>
       </c>
       <c r="C205" s="14" t="str">
-        <f>VLOOKUP(B205,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D205" s="14">
-        <f>(B205-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33626,11 +33626,11 @@
         <v>99</v>
       </c>
       <c r="C206" s="14" t="str">
-        <f>VLOOKUP(B206,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D206" s="14">
-        <f>(B206-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33642,11 +33642,11 @@
         <v>99</v>
       </c>
       <c r="C207" s="14" t="str">
-        <f>VLOOKUP(B207,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D207" s="14">
-        <f>(B207-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33658,11 +33658,11 @@
         <v>99</v>
       </c>
       <c r="C208" s="14" t="str">
-        <f>VLOOKUP(B208,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D208" s="14">
-        <f>(B208-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33674,11 +33674,11 @@
         <v>99</v>
       </c>
       <c r="C209" s="14" t="str">
-        <f>VLOOKUP(B209,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D209" s="14">
-        <f>(B209-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33690,11 +33690,11 @@
         <v>99</v>
       </c>
       <c r="C210" s="14" t="str">
-        <f>VLOOKUP(B210,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D210" s="14">
-        <f>(B210-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33706,11 +33706,11 @@
         <v>99</v>
       </c>
       <c r="C211" s="14" t="str">
-        <f>VLOOKUP(B211,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D211" s="14">
-        <f>(B211-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33722,11 +33722,11 @@
         <v>99</v>
       </c>
       <c r="C212" s="14" t="str">
-        <f>VLOOKUP(B212,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D212" s="14">
-        <f>(B212-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33738,11 +33738,11 @@
         <v>99</v>
       </c>
       <c r="C213" s="14" t="str">
-        <f>VLOOKUP(B213,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D213" s="14">
-        <f>(B213-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33754,11 +33754,11 @@
         <v>99</v>
       </c>
       <c r="C214" s="14" t="str">
-        <f>VLOOKUP(B214,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D214" s="14">
-        <f>(B214-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33770,11 +33770,11 @@
         <v>99</v>
       </c>
       <c r="C215" s="14" t="str">
-        <f>VLOOKUP(B215,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D215" s="14">
-        <f>(B215-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33786,11 +33786,11 @@
         <v>99</v>
       </c>
       <c r="C216" s="14" t="str">
-        <f>VLOOKUP(B216,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D216" s="14">
-        <f>(B216-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33802,11 +33802,11 @@
         <v>99</v>
       </c>
       <c r="C217" s="14" t="str">
-        <f>VLOOKUP(B217,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D217" s="14">
-        <f>(B217-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33818,11 +33818,11 @@
         <v>99</v>
       </c>
       <c r="C218" s="14" t="str">
-        <f>VLOOKUP(B218,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D218" s="14">
-        <f>(B218-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33834,11 +33834,11 @@
         <v>99</v>
       </c>
       <c r="C219" s="14" t="str">
-        <f>VLOOKUP(B219,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D219" s="14">
-        <f>(B219-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33850,11 +33850,11 @@
         <v>99</v>
       </c>
       <c r="C220" s="14" t="str">
-        <f>VLOOKUP(B220,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D220" s="14">
-        <f>(B220-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33866,11 +33866,11 @@
         <v>99</v>
       </c>
       <c r="C221" s="14" t="str">
-        <f>VLOOKUP(B221,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D221" s="14">
-        <f>(B221-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33882,11 +33882,11 @@
         <v>99</v>
       </c>
       <c r="C222" s="14" t="str">
-        <f>VLOOKUP(B222,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D222" s="14">
-        <f>(B222-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33898,11 +33898,11 @@
         <v>99</v>
       </c>
       <c r="C223" s="14" t="str">
-        <f>VLOOKUP(B223,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D223" s="14">
-        <f>(B223-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33914,11 +33914,11 @@
         <v>99</v>
       </c>
       <c r="C224" s="14" t="str">
-        <f>VLOOKUP(B224,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D224" s="14">
-        <f>(B224-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33930,11 +33930,11 @@
         <v>99</v>
       </c>
       <c r="C225" s="14" t="str">
-        <f>VLOOKUP(B225,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D225" s="14">
-        <f>(B225-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33946,11 +33946,11 @@
         <v>99</v>
       </c>
       <c r="C226" s="14" t="str">
-        <f>VLOOKUP(B226,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D226" s="14">
-        <f>(B226-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33962,11 +33962,11 @@
         <v>99</v>
       </c>
       <c r="C227" s="14" t="str">
-        <f>VLOOKUP(B227,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D227" s="14">
-        <f>(B227-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33978,11 +33978,11 @@
         <v>99</v>
       </c>
       <c r="C228" s="14" t="str">
-        <f>VLOOKUP(B228,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D228" s="14">
-        <f>(B228-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-3.794772288755472E-2</v>
       </c>
     </row>
@@ -33994,11 +33994,11 @@
         <v>98.55</v>
       </c>
       <c r="C229" s="14" t="str">
-        <f>VLOOKUP(B229,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D229" s="14">
-        <f>(B229-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-7.4343038929715499E-2</v>
       </c>
     </row>
@@ -34010,11 +34010,11 @@
         <v>98.1</v>
       </c>
       <c r="C230" s="14" t="str">
-        <f>VLOOKUP(B230,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D230" s="14">
-        <f>(B230-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.11073835497187628</v>
       </c>
     </row>
@@ -34026,11 +34026,11 @@
         <v>98.1</v>
       </c>
       <c r="C231" s="14" t="str">
-        <f>VLOOKUP(B231,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D231" s="14">
-        <f>(B231-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.11073835497187628</v>
       </c>
     </row>
@@ -34042,11 +34042,11 @@
         <v>98.1</v>
       </c>
       <c r="C232" s="14" t="str">
-        <f>VLOOKUP(B232,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D232" s="14">
-        <f>(B232-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.11073835497187628</v>
       </c>
     </row>
@@ -34058,11 +34058,11 @@
         <v>98.1</v>
       </c>
       <c r="C233" s="14" t="str">
-        <f>VLOOKUP(B233,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D233" s="14">
-        <f>(B233-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.11073835497187628</v>
       </c>
     </row>
@@ -34074,11 +34074,11 @@
         <v>97.65</v>
       </c>
       <c r="C234" s="14" t="str">
-        <f>VLOOKUP(B234,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D234" s="14">
-        <f>(B234-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.14713367101403593</v>
       </c>
     </row>
@@ -34090,11 +34090,11 @@
         <v>97.2</v>
       </c>
       <c r="C235" s="14" t="str">
-        <f>VLOOKUP(B235,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D235" s="14">
-        <f>(B235-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.18352898705619672</v>
       </c>
     </row>
@@ -34106,11 +34106,11 @@
         <v>96.75</v>
       </c>
       <c r="C236" s="14" t="str">
-        <f>VLOOKUP(B236,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D236" s="14">
-        <f>(B236-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34122,11 +34122,11 @@
         <v>96.75</v>
       </c>
       <c r="C237" s="14" t="str">
-        <f>VLOOKUP(B237,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D237" s="14">
-        <f>(B237-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34138,11 +34138,11 @@
         <v>96.75</v>
       </c>
       <c r="C238" s="14" t="str">
-        <f>VLOOKUP(B238,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D238" s="14">
-        <f>(B238-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34154,11 +34154,11 @@
         <v>96.75</v>
       </c>
       <c r="C239" s="14" t="str">
-        <f>VLOOKUP(B239,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D239" s="14">
-        <f>(B239-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34170,11 +34170,11 @@
         <v>96.75</v>
       </c>
       <c r="C240" s="14" t="str">
-        <f>VLOOKUP(B240,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D240" s="14">
-        <f>(B240-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34186,11 +34186,11 @@
         <v>96.75</v>
       </c>
       <c r="C241" s="14" t="str">
-        <f>VLOOKUP(B241,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D241" s="14">
-        <f>(B241-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34202,11 +34202,11 @@
         <v>96.75</v>
       </c>
       <c r="C242" s="14" t="str">
-        <f>VLOOKUP(B242,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D242" s="14">
-        <f>(B242-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34218,11 +34218,11 @@
         <v>96.75</v>
       </c>
       <c r="C243" s="14" t="str">
-        <f>VLOOKUP(B243,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D243" s="14">
-        <f>(B243-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34234,11 +34234,11 @@
         <v>96.75</v>
       </c>
       <c r="C244" s="14" t="str">
-        <f>VLOOKUP(B244,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D244" s="14">
-        <f>(B244-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34250,11 +34250,11 @@
         <v>96.75</v>
       </c>
       <c r="C245" s="14" t="str">
-        <f>VLOOKUP(B245,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D245" s="14">
-        <f>(B245-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34266,11 +34266,11 @@
         <v>96.75</v>
       </c>
       <c r="C246" s="14" t="str">
-        <f>VLOOKUP(B246,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D246" s="14">
-        <f>(B246-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34282,11 +34282,11 @@
         <v>96.75</v>
       </c>
       <c r="C247" s="14" t="str">
-        <f>VLOOKUP(B247,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D247" s="14">
-        <f>(B247-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34298,11 +34298,11 @@
         <v>96.75</v>
       </c>
       <c r="C248" s="14" t="str">
-        <f>VLOOKUP(B248,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D248" s="14">
-        <f>(B248-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34314,11 +34314,11 @@
         <v>96.75</v>
       </c>
       <c r="C249" s="14" t="str">
-        <f>VLOOKUP(B249,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D249" s="14">
-        <f>(B249-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34330,11 +34330,11 @@
         <v>96.75</v>
       </c>
       <c r="C250" s="14" t="str">
-        <f>VLOOKUP(B250,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D250" s="14">
-        <f>(B250-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.2199243030983575</v>
       </c>
     </row>
@@ -34346,11 +34346,11 @@
         <v>96.3</v>
       </c>
       <c r="C251" s="14" t="str">
-        <f>VLOOKUP(B251,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D251" s="14">
-        <f>(B251-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.25631961914051826</v>
       </c>
     </row>
@@ -34362,11 +34362,11 @@
         <v>95.85</v>
       </c>
       <c r="C252" s="14" t="str">
-        <f>VLOOKUP(B252,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D252" s="14">
-        <f>(B252-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.29271493518267905</v>
       </c>
     </row>
@@ -34378,11 +34378,11 @@
         <v>95.85</v>
       </c>
       <c r="C253" s="14" t="str">
-        <f>VLOOKUP(B253,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D253" s="14">
-        <f>(B253-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.29271493518267905</v>
       </c>
     </row>
@@ -34394,11 +34394,11 @@
         <v>95.85</v>
       </c>
       <c r="C254" s="14" t="str">
-        <f>VLOOKUP(B254,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D254" s="14">
-        <f>(B254-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.29271493518267905</v>
       </c>
     </row>
@@ -34410,11 +34410,11 @@
         <v>95.4</v>
       </c>
       <c r="C255" s="14" t="str">
-        <f>VLOOKUP(B255,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D255" s="14">
-        <f>(B255-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.32911025122483867</v>
       </c>
     </row>
@@ -34426,11 +34426,11 @@
         <v>95.4</v>
       </c>
       <c r="C256" s="14" t="str">
-        <f>VLOOKUP(B256,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D256" s="14">
-        <f>(B256-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.32911025122483867</v>
       </c>
     </row>
@@ -34442,11 +34442,11 @@
         <v>95.4</v>
       </c>
       <c r="C257" s="14" t="str">
-        <f>VLOOKUP(B257,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>Medium</v>
       </c>
       <c r="D257" s="14">
-        <f>(B257-$G$3)/$G$5</f>
+        <f t="shared" si="7"/>
         <v>-0.32911025122483867</v>
       </c>
     </row>
@@ -34458,11 +34458,11 @@
         <v>94.5</v>
       </c>
       <c r="C258" s="14" t="str">
-        <f>VLOOKUP(B258,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" ref="C258:C321" si="8">VLOOKUP(B258,$F$17:$G$26,2,TRUE)</f>
         <v>Medium</v>
       </c>
       <c r="D258" s="14">
-        <f>(B258-$G$3)/$G$5</f>
+        <f t="shared" ref="D258:D321" si="9">(B258-$G$3)/$G$5</f>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34474,11 +34474,11 @@
         <v>94.5</v>
       </c>
       <c r="C259" s="14" t="str">
-        <f>VLOOKUP(B259,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D259" s="14">
-        <f>(B259-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34490,11 +34490,11 @@
         <v>94.5</v>
       </c>
       <c r="C260" s="14" t="str">
-        <f>VLOOKUP(B260,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D260" s="14">
-        <f>(B260-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34506,11 +34506,11 @@
         <v>94.5</v>
       </c>
       <c r="C261" s="14" t="str">
-        <f>VLOOKUP(B261,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D261" s="14">
-        <f>(B261-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34522,11 +34522,11 @@
         <v>94.5</v>
       </c>
       <c r="C262" s="14" t="str">
-        <f>VLOOKUP(B262,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D262" s="14">
-        <f>(B262-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34538,11 +34538,11 @@
         <v>94.5</v>
       </c>
       <c r="C263" s="14" t="str">
-        <f>VLOOKUP(B263,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D263" s="14">
-        <f>(B263-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34554,11 +34554,11 @@
         <v>94.5</v>
       </c>
       <c r="C264" s="14" t="str">
-        <f>VLOOKUP(B264,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D264" s="14">
-        <f>(B264-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34570,11 +34570,11 @@
         <v>94.5</v>
       </c>
       <c r="C265" s="14" t="str">
-        <f>VLOOKUP(B265,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D265" s="14">
-        <f>(B265-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34586,11 +34586,11 @@
         <v>94.5</v>
       </c>
       <c r="C266" s="14" t="str">
-        <f>VLOOKUP(B266,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D266" s="14">
-        <f>(B266-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34602,11 +34602,11 @@
         <v>94.5</v>
       </c>
       <c r="C267" s="14" t="str">
-        <f>VLOOKUP(B267,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D267" s="14">
-        <f>(B267-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34618,11 +34618,11 @@
         <v>94.5</v>
       </c>
       <c r="C268" s="14" t="str">
-        <f>VLOOKUP(B268,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D268" s="14">
-        <f>(B268-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34634,11 +34634,11 @@
         <v>94.5</v>
       </c>
       <c r="C269" s="14" t="str">
-        <f>VLOOKUP(B269,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D269" s="14">
-        <f>(B269-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34650,11 +34650,11 @@
         <v>94.5</v>
       </c>
       <c r="C270" s="14" t="str">
-        <f>VLOOKUP(B270,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D270" s="14">
-        <f>(B270-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34666,11 +34666,11 @@
         <v>94.5</v>
       </c>
       <c r="C271" s="14" t="str">
-        <f>VLOOKUP(B271,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D271" s="14">
-        <f>(B271-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34682,11 +34682,11 @@
         <v>94.5</v>
       </c>
       <c r="C272" s="14" t="str">
-        <f>VLOOKUP(B272,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D272" s="14">
-        <f>(B272-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34698,11 +34698,11 @@
         <v>94.5</v>
       </c>
       <c r="C273" s="14" t="str">
-        <f>VLOOKUP(B273,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D273" s="14">
-        <f>(B273-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34714,11 +34714,11 @@
         <v>94.5</v>
       </c>
       <c r="C274" s="14" t="str">
-        <f>VLOOKUP(B274,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D274" s="14">
-        <f>(B274-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34730,11 +34730,11 @@
         <v>94.5</v>
       </c>
       <c r="C275" s="14" t="str">
-        <f>VLOOKUP(B275,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D275" s="14">
-        <f>(B275-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.40190088330916024</v>
       </c>
     </row>
@@ -34746,11 +34746,11 @@
         <v>94.05</v>
       </c>
       <c r="C276" s="14" t="str">
-        <f>VLOOKUP(B276,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D276" s="14">
-        <f>(B276-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.43829619935132103</v>
       </c>
     </row>
@@ -34762,11 +34762,11 @@
         <v>94.05</v>
       </c>
       <c r="C277" s="14" t="str">
-        <f>VLOOKUP(B277,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D277" s="14">
-        <f>(B277-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.43829619935132103</v>
       </c>
     </row>
@@ -34778,11 +34778,11 @@
         <v>94.05</v>
       </c>
       <c r="C278" s="14" t="str">
-        <f>VLOOKUP(B278,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D278" s="14">
-        <f>(B278-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.43829619935132103</v>
       </c>
     </row>
@@ -34794,11 +34794,11 @@
         <v>93.6</v>
       </c>
       <c r="C279" s="14" t="str">
-        <f>VLOOKUP(B279,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D279" s="14">
-        <f>(B279-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.47469151539348181</v>
       </c>
     </row>
@@ -34810,11 +34810,11 @@
         <v>93.6</v>
       </c>
       <c r="C280" s="14" t="str">
-        <f>VLOOKUP(B280,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D280" s="14">
-        <f>(B280-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.47469151539348181</v>
       </c>
     </row>
@@ -34826,11 +34826,11 @@
         <v>93.15</v>
       </c>
       <c r="C281" s="14" t="str">
-        <f>VLOOKUP(B281,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D281" s="14">
-        <f>(B281-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.51108683143564149</v>
       </c>
     </row>
@@ -34842,11 +34842,11 @@
         <v>92.7</v>
       </c>
       <c r="C282" s="14" t="str">
-        <f>VLOOKUP(B282,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D282" s="14">
-        <f>(B282-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.54748214747780222</v>
       </c>
     </row>
@@ -34858,11 +34858,11 @@
         <v>92.7</v>
       </c>
       <c r="C283" s="14" t="str">
-        <f>VLOOKUP(B283,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D283" s="14">
-        <f>(B283-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.54748214747780222</v>
       </c>
     </row>
@@ -34874,11 +34874,11 @@
         <v>92.7</v>
       </c>
       <c r="C284" s="14" t="str">
-        <f>VLOOKUP(B284,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D284" s="14">
-        <f>(B284-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.54748214747780222</v>
       </c>
     </row>
@@ -34890,11 +34890,11 @@
         <v>92.7</v>
       </c>
       <c r="C285" s="14" t="str">
-        <f>VLOOKUP(B285,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D285" s="14">
-        <f>(B285-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.54748214747780222</v>
       </c>
     </row>
@@ -34906,11 +34906,11 @@
         <v>92.25</v>
       </c>
       <c r="C286" s="14" t="str">
-        <f>VLOOKUP(B286,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D286" s="14">
-        <f>(B286-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -34922,11 +34922,11 @@
         <v>92.25</v>
       </c>
       <c r="C287" s="14" t="str">
-        <f>VLOOKUP(B287,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D287" s="14">
-        <f>(B287-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -34938,11 +34938,11 @@
         <v>92.25</v>
       </c>
       <c r="C288" s="14" t="str">
-        <f>VLOOKUP(B288,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D288" s="14">
-        <f>(B288-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -34954,11 +34954,11 @@
         <v>92.25</v>
       </c>
       <c r="C289" s="14" t="str">
-        <f>VLOOKUP(B289,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D289" s="14">
-        <f>(B289-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -34970,11 +34970,11 @@
         <v>92.25</v>
       </c>
       <c r="C290" s="14" t="str">
-        <f>VLOOKUP(B290,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D290" s="14">
-        <f>(B290-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -34986,11 +34986,11 @@
         <v>92.25</v>
       </c>
       <c r="C291" s="14" t="str">
-        <f>VLOOKUP(B291,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D291" s="14">
-        <f>(B291-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -35002,11 +35002,11 @@
         <v>92.25</v>
       </c>
       <c r="C292" s="14" t="str">
-        <f>VLOOKUP(B292,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D292" s="14">
-        <f>(B292-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -35018,11 +35018,11 @@
         <v>92.25</v>
       </c>
       <c r="C293" s="14" t="str">
-        <f>VLOOKUP(B293,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D293" s="14">
-        <f>(B293-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -35034,11 +35034,11 @@
         <v>92.25</v>
       </c>
       <c r="C294" s="14" t="str">
-        <f>VLOOKUP(B294,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D294" s="14">
-        <f>(B294-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -35050,11 +35050,11 @@
         <v>92.25</v>
       </c>
       <c r="C295" s="14" t="str">
-        <f>VLOOKUP(B295,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D295" s="14">
-        <f>(B295-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -35066,11 +35066,11 @@
         <v>92.25</v>
       </c>
       <c r="C296" s="14" t="str">
-        <f>VLOOKUP(B296,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D296" s="14">
-        <f>(B296-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -35082,11 +35082,11 @@
         <v>92.25</v>
       </c>
       <c r="C297" s="14" t="str">
-        <f>VLOOKUP(B297,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D297" s="14">
-        <f>(B297-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -35098,11 +35098,11 @@
         <v>92.25</v>
       </c>
       <c r="C298" s="14" t="str">
-        <f>VLOOKUP(B298,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D298" s="14">
-        <f>(B298-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.58387746351996306</v>
       </c>
     </row>
@@ -35114,11 +35114,11 @@
         <v>91.35</v>
       </c>
       <c r="C299" s="14" t="str">
-        <f>VLOOKUP(B299,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D299" s="14">
-        <f>(B299-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.65666809560428463</v>
       </c>
     </row>
@@ -35130,11 +35130,11 @@
         <v>90.9</v>
       </c>
       <c r="C300" s="14" t="str">
-        <f>VLOOKUP(B300,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D300" s="14">
-        <f>(B300-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.69306341164644425</v>
       </c>
     </row>
@@ -35146,11 +35146,11 @@
         <v>90.45</v>
       </c>
       <c r="C301" s="14" t="str">
-        <f>VLOOKUP(B301,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D301" s="14">
-        <f>(B301-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.72945872768860498</v>
       </c>
     </row>
@@ -35162,11 +35162,11 @@
         <v>90.45</v>
       </c>
       <c r="C302" s="14" t="str">
-        <f>VLOOKUP(B302,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D302" s="14">
-        <f>(B302-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.72945872768860498</v>
       </c>
     </row>
@@ -35178,11 +35178,11 @@
         <v>90</v>
       </c>
       <c r="C303" s="14" t="str">
-        <f>VLOOKUP(B303,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D303" s="14">
-        <f>(B303-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35194,11 +35194,11 @@
         <v>90</v>
       </c>
       <c r="C304" s="14" t="str">
-        <f>VLOOKUP(B304,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D304" s="14">
-        <f>(B304-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35210,11 +35210,11 @@
         <v>90</v>
       </c>
       <c r="C305" s="14" t="str">
-        <f>VLOOKUP(B305,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D305" s="14">
-        <f>(B305-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35226,11 +35226,11 @@
         <v>90</v>
       </c>
       <c r="C306" s="14" t="str">
-        <f>VLOOKUP(B306,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D306" s="14">
-        <f>(B306-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35242,11 +35242,11 @@
         <v>90</v>
       </c>
       <c r="C307" s="14" t="str">
-        <f>VLOOKUP(B307,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D307" s="14">
-        <f>(B307-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35258,11 +35258,11 @@
         <v>90</v>
       </c>
       <c r="C308" s="14" t="str">
-        <f>VLOOKUP(B308,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D308" s="14">
-        <f>(B308-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35274,11 +35274,11 @@
         <v>90</v>
       </c>
       <c r="C309" s="14" t="str">
-        <f>VLOOKUP(B309,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D309" s="14">
-        <f>(B309-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35290,11 +35290,11 @@
         <v>90</v>
       </c>
       <c r="C310" s="14" t="str">
-        <f>VLOOKUP(B310,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D310" s="14">
-        <f>(B310-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35306,11 +35306,11 @@
         <v>90</v>
       </c>
       <c r="C311" s="14" t="str">
-        <f>VLOOKUP(B311,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D311" s="14">
-        <f>(B311-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35322,11 +35322,11 @@
         <v>90</v>
       </c>
       <c r="C312" s="14" t="str">
-        <f>VLOOKUP(B312,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D312" s="14">
-        <f>(B312-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35338,11 +35338,11 @@
         <v>90</v>
       </c>
       <c r="C313" s="14" t="str">
-        <f>VLOOKUP(B313,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D313" s="14">
-        <f>(B313-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35354,11 +35354,11 @@
         <v>90</v>
       </c>
       <c r="C314" s="14" t="str">
-        <f>VLOOKUP(B314,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D314" s="14">
-        <f>(B314-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35370,11 +35370,11 @@
         <v>90</v>
       </c>
       <c r="C315" s="14" t="str">
-        <f>VLOOKUP(B315,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D315" s="14">
-        <f>(B315-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35386,11 +35386,11 @@
         <v>90</v>
       </c>
       <c r="C316" s="14" t="str">
-        <f>VLOOKUP(B316,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D316" s="14">
-        <f>(B316-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35402,11 +35402,11 @@
         <v>90</v>
       </c>
       <c r="C317" s="14" t="str">
-        <f>VLOOKUP(B317,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D317" s="14">
-        <f>(B317-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35418,11 +35418,11 @@
         <v>90</v>
       </c>
       <c r="C318" s="14" t="str">
-        <f>VLOOKUP(B318,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D318" s="14">
-        <f>(B318-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35434,11 +35434,11 @@
         <v>90</v>
       </c>
       <c r="C319" s="14" t="str">
-        <f>VLOOKUP(B319,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D319" s="14">
-        <f>(B319-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35450,11 +35450,11 @@
         <v>90</v>
       </c>
       <c r="C320" s="14" t="str">
-        <f>VLOOKUP(B320,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D320" s="14">
-        <f>(B320-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35466,11 +35466,11 @@
         <v>90</v>
       </c>
       <c r="C321" s="14" t="str">
-        <f>VLOOKUP(B321,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>Medium</v>
       </c>
       <c r="D321" s="14">
-        <f>(B321-$G$3)/$G$5</f>
+        <f t="shared" si="9"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35482,11 +35482,11 @@
         <v>90</v>
       </c>
       <c r="C322" s="14" t="str">
-        <f>VLOOKUP(B322,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" ref="C322:C385" si="10">VLOOKUP(B322,$F$17:$G$26,2,TRUE)</f>
         <v>Medium</v>
       </c>
       <c r="D322" s="14">
-        <f>(B322-$G$3)/$G$5</f>
+        <f t="shared" ref="D322:D385" si="11">(B322-$G$3)/$G$5</f>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35498,11 +35498,11 @@
         <v>90</v>
       </c>
       <c r="C323" s="14" t="str">
-        <f>VLOOKUP(B323,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D323" s="14">
-        <f>(B323-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35514,11 +35514,11 @@
         <v>90</v>
       </c>
       <c r="C324" s="14" t="str">
-        <f>VLOOKUP(B324,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D324" s="14">
-        <f>(B324-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35530,11 +35530,11 @@
         <v>90</v>
       </c>
       <c r="C325" s="14" t="str">
-        <f>VLOOKUP(B325,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D325" s="14">
-        <f>(B325-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35546,11 +35546,11 @@
         <v>90</v>
       </c>
       <c r="C326" s="14" t="str">
-        <f>VLOOKUP(B326,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D326" s="14">
-        <f>(B326-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35562,11 +35562,11 @@
         <v>90</v>
       </c>
       <c r="C327" s="14" t="str">
-        <f>VLOOKUP(B327,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D327" s="14">
-        <f>(B327-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.76585404373076582</v>
       </c>
     </row>
@@ -35578,11 +35578,11 @@
         <v>89.55</v>
       </c>
       <c r="C328" s="14" t="str">
-        <f>VLOOKUP(B328,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D328" s="14">
-        <f>(B328-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.80224935977292655</v>
       </c>
     </row>
@@ -35594,11 +35594,11 @@
         <v>89.1</v>
       </c>
       <c r="C329" s="14" t="str">
-        <f>VLOOKUP(B329,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D329" s="14">
-        <f>(B329-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.83864467581508739</v>
       </c>
     </row>
@@ -35610,11 +35610,11 @@
         <v>89.1</v>
       </c>
       <c r="C330" s="14" t="str">
-        <f>VLOOKUP(B330,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D330" s="14">
-        <f>(B330-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.83864467581508739</v>
       </c>
     </row>
@@ -35626,11 +35626,11 @@
         <v>89.1</v>
       </c>
       <c r="C331" s="14" t="str">
-        <f>VLOOKUP(B331,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D331" s="14">
-        <f>(B331-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.83864467581508739</v>
       </c>
     </row>
@@ -35642,11 +35642,11 @@
         <v>88.2</v>
       </c>
       <c r="C332" s="14" t="str">
-        <f>VLOOKUP(B332,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D332" s="14">
-        <f>(B332-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.91143530789940774</v>
       </c>
     </row>
@@ -35658,11 +35658,11 @@
         <v>87.75</v>
       </c>
       <c r="C333" s="14" t="str">
-        <f>VLOOKUP(B333,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D333" s="14">
-        <f>(B333-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35674,11 +35674,11 @@
         <v>87.75</v>
       </c>
       <c r="C334" s="14" t="str">
-        <f>VLOOKUP(B334,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D334" s="14">
-        <f>(B334-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35690,11 +35690,11 @@
         <v>87.75</v>
       </c>
       <c r="C335" s="14" t="str">
-        <f>VLOOKUP(B335,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D335" s="14">
-        <f>(B335-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35706,11 +35706,11 @@
         <v>87.75</v>
       </c>
       <c r="C336" s="14" t="str">
-        <f>VLOOKUP(B336,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D336" s="14">
-        <f>(B336-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35722,11 +35722,11 @@
         <v>87.75</v>
       </c>
       <c r="C337" s="14" t="str">
-        <f>VLOOKUP(B337,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D337" s="14">
-        <f>(B337-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35738,11 +35738,11 @@
         <v>87.75</v>
       </c>
       <c r="C338" s="14" t="str">
-        <f>VLOOKUP(B338,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D338" s="14">
-        <f>(B338-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35754,11 +35754,11 @@
         <v>87.75</v>
       </c>
       <c r="C339" s="14" t="str">
-        <f>VLOOKUP(B339,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D339" s="14">
-        <f>(B339-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35770,11 +35770,11 @@
         <v>87.75</v>
       </c>
       <c r="C340" s="14" t="str">
-        <f>VLOOKUP(B340,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D340" s="14">
-        <f>(B340-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35786,11 +35786,11 @@
         <v>87.75</v>
       </c>
       <c r="C341" s="14" t="str">
-        <f>VLOOKUP(B341,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D341" s="14">
-        <f>(B341-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35802,11 +35802,11 @@
         <v>87.75</v>
       </c>
       <c r="C342" s="14" t="str">
-        <f>VLOOKUP(B342,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D342" s="14">
-        <f>(B342-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35818,11 +35818,11 @@
         <v>87.75</v>
       </c>
       <c r="C343" s="14" t="str">
-        <f>VLOOKUP(B343,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D343" s="14">
-        <f>(B343-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.94783062394156858</v>
       </c>
     </row>
@@ -35834,11 +35834,11 @@
         <v>87.3</v>
       </c>
       <c r="C344" s="14" t="str">
-        <f>VLOOKUP(B344,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D344" s="14">
-        <f>(B344-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.98422593998372931</v>
       </c>
     </row>
@@ -35850,11 +35850,11 @@
         <v>87.3</v>
       </c>
       <c r="C345" s="14" t="str">
-        <f>VLOOKUP(B345,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D345" s="14">
-        <f>(B345-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.98422593998372931</v>
       </c>
     </row>
@@ -35866,11 +35866,11 @@
         <v>87.3</v>
       </c>
       <c r="C346" s="14" t="str">
-        <f>VLOOKUP(B346,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Medium</v>
       </c>
       <c r="D346" s="14">
-        <f>(B346-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-0.98422593998372931</v>
       </c>
     </row>
@@ -35882,11 +35882,11 @@
         <v>86.85</v>
       </c>
       <c r="C347" s="14" t="str">
-        <f>VLOOKUP(B347,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D347" s="14">
-        <f>(B347-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.02062125602589</v>
       </c>
     </row>
@@ -35898,11 +35898,11 @@
         <v>86.85</v>
       </c>
       <c r="C348" s="14" t="str">
-        <f>VLOOKUP(B348,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D348" s="14">
-        <f>(B348-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.02062125602589</v>
       </c>
     </row>
@@ -35914,11 +35914,11 @@
         <v>86.4</v>
       </c>
       <c r="C349" s="14" t="str">
-        <f>VLOOKUP(B349,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D349" s="14">
-        <f>(B349-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.0570165720680498</v>
       </c>
     </row>
@@ -35930,11 +35930,11 @@
         <v>86.4</v>
       </c>
       <c r="C350" s="14" t="str">
-        <f>VLOOKUP(B350,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D350" s="14">
-        <f>(B350-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.0570165720680498</v>
       </c>
     </row>
@@ -35946,11 +35946,11 @@
         <v>85.95</v>
       </c>
       <c r="C351" s="14" t="str">
-        <f>VLOOKUP(B351,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D351" s="14">
-        <f>(B351-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.0934118881102106</v>
       </c>
     </row>
@@ -35962,11 +35962,11 @@
         <v>85.95</v>
       </c>
       <c r="C352" s="14" t="str">
-        <f>VLOOKUP(B352,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D352" s="14">
-        <f>(B352-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.0934118881102106</v>
       </c>
     </row>
@@ -35978,11 +35978,11 @@
         <v>85.95</v>
       </c>
       <c r="C353" s="14" t="str">
-        <f>VLOOKUP(B353,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D353" s="14">
-        <f>(B353-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.0934118881102106</v>
       </c>
     </row>
@@ -35994,11 +35994,11 @@
         <v>85.95</v>
       </c>
       <c r="C354" s="14" t="str">
-        <f>VLOOKUP(B354,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D354" s="14">
-        <f>(B354-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.0934118881102106</v>
       </c>
     </row>
@@ -36010,11 +36010,11 @@
         <v>85.95</v>
       </c>
       <c r="C355" s="14" t="str">
-        <f>VLOOKUP(B355,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D355" s="14">
-        <f>(B355-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.0934118881102106</v>
       </c>
     </row>
@@ -36026,11 +36026,11 @@
         <v>85.5</v>
       </c>
       <c r="C356" s="14" t="str">
-        <f>VLOOKUP(B356,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D356" s="14">
-        <f>(B356-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36042,11 +36042,11 @@
         <v>85.5</v>
       </c>
       <c r="C357" s="14" t="str">
-        <f>VLOOKUP(B357,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D357" s="14">
-        <f>(B357-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36058,11 +36058,11 @@
         <v>85.5</v>
       </c>
       <c r="C358" s="14" t="str">
-        <f>VLOOKUP(B358,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D358" s="14">
-        <f>(B358-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36074,11 +36074,11 @@
         <v>85.5</v>
       </c>
       <c r="C359" s="14" t="str">
-        <f>VLOOKUP(B359,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D359" s="14">
-        <f>(B359-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36090,11 +36090,11 @@
         <v>85.5</v>
       </c>
       <c r="C360" s="14" t="str">
-        <f>VLOOKUP(B360,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D360" s="14">
-        <f>(B360-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36106,11 +36106,11 @@
         <v>85.5</v>
       </c>
       <c r="C361" s="14" t="str">
-        <f>VLOOKUP(B361,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D361" s="14">
-        <f>(B361-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36122,11 +36122,11 @@
         <v>85.5</v>
       </c>
       <c r="C362" s="14" t="str">
-        <f>VLOOKUP(B362,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D362" s="14">
-        <f>(B362-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36138,11 +36138,11 @@
         <v>85.5</v>
       </c>
       <c r="C363" s="14" t="str">
-        <f>VLOOKUP(B363,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D363" s="14">
-        <f>(B363-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36154,11 +36154,11 @@
         <v>85.5</v>
       </c>
       <c r="C364" s="14" t="str">
-        <f>VLOOKUP(B364,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D364" s="14">
-        <f>(B364-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36170,11 +36170,11 @@
         <v>85.5</v>
       </c>
       <c r="C365" s="14" t="str">
-        <f>VLOOKUP(B365,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D365" s="14">
-        <f>(B365-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36186,11 +36186,11 @@
         <v>85.5</v>
       </c>
       <c r="C366" s="14" t="str">
-        <f>VLOOKUP(B366,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D366" s="14">
-        <f>(B366-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36202,11 +36202,11 @@
         <v>85.5</v>
       </c>
       <c r="C367" s="14" t="str">
-        <f>VLOOKUP(B367,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D367" s="14">
-        <f>(B367-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36218,11 +36218,11 @@
         <v>85.5</v>
       </c>
       <c r="C368" s="14" t="str">
-        <f>VLOOKUP(B368,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D368" s="14">
-        <f>(B368-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36234,11 +36234,11 @@
         <v>85.5</v>
       </c>
       <c r="C369" s="14" t="str">
-        <f>VLOOKUP(B369,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D369" s="14">
-        <f>(B369-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36250,11 +36250,11 @@
         <v>85.5</v>
       </c>
       <c r="C370" s="14" t="str">
-        <f>VLOOKUP(B370,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D370" s="14">
-        <f>(B370-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36266,11 +36266,11 @@
         <v>85.5</v>
       </c>
       <c r="C371" s="14" t="str">
-        <f>VLOOKUP(B371,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D371" s="14">
-        <f>(B371-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36282,11 +36282,11 @@
         <v>85.5</v>
       </c>
       <c r="C372" s="14" t="str">
-        <f>VLOOKUP(B372,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D372" s="14">
-        <f>(B372-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36298,11 +36298,11 @@
         <v>85.5</v>
       </c>
       <c r="C373" s="14" t="str">
-        <f>VLOOKUP(B373,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D373" s="14">
-        <f>(B373-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1298072041523715</v>
       </c>
     </row>
@@ -36314,11 +36314,11 @@
         <v>85.05</v>
       </c>
       <c r="C374" s="14" t="str">
-        <f>VLOOKUP(B374,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D374" s="14">
-        <f>(B374-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1662025201945321</v>
       </c>
     </row>
@@ -36330,11 +36330,11 @@
         <v>85.05</v>
       </c>
       <c r="C375" s="14" t="str">
-        <f>VLOOKUP(B375,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D375" s="14">
-        <f>(B375-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1662025201945321</v>
       </c>
     </row>
@@ -36346,11 +36346,11 @@
         <v>85.05</v>
       </c>
       <c r="C376" s="14" t="str">
-        <f>VLOOKUP(B376,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D376" s="14">
-        <f>(B376-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.1662025201945321</v>
       </c>
     </row>
@@ -36362,11 +36362,11 @@
         <v>84.6</v>
       </c>
       <c r="C377" s="14" t="str">
-        <f>VLOOKUP(B377,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D377" s="14">
-        <f>(B377-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.2025978362366929</v>
       </c>
     </row>
@@ -36378,11 +36378,11 @@
         <v>83.7</v>
       </c>
       <c r="C378" s="14" t="str">
-        <f>VLOOKUP(B378,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D378" s="14">
-        <f>(B378-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.2753884683210133</v>
       </c>
     </row>
@@ -36394,11 +36394,11 @@
         <v>83.7</v>
       </c>
       <c r="C379" s="14" t="str">
-        <f>VLOOKUP(B379,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D379" s="14">
-        <f>(B379-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.2753884683210133</v>
       </c>
     </row>
@@ -36410,11 +36410,11 @@
         <v>83.7</v>
       </c>
       <c r="C380" s="14" t="str">
-        <f>VLOOKUP(B380,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D380" s="14">
-        <f>(B380-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.2753884683210133</v>
       </c>
     </row>
@@ -36426,11 +36426,11 @@
         <v>83.7</v>
       </c>
       <c r="C381" s="14" t="str">
-        <f>VLOOKUP(B381,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D381" s="14">
-        <f>(B381-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.2753884683210133</v>
       </c>
     </row>
@@ -36442,11 +36442,11 @@
         <v>83.25</v>
       </c>
       <c r="C382" s="14" t="str">
-        <f>VLOOKUP(B382,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D382" s="14">
-        <f>(B382-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36458,11 +36458,11 @@
         <v>83.25</v>
       </c>
       <c r="C383" s="14" t="str">
-        <f>VLOOKUP(B383,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D383" s="14">
-        <f>(B383-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36474,11 +36474,11 @@
         <v>83.25</v>
       </c>
       <c r="C384" s="14" t="str">
-        <f>VLOOKUP(B384,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D384" s="14">
-        <f>(B384-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36490,11 +36490,11 @@
         <v>83.25</v>
       </c>
       <c r="C385" s="14" t="str">
-        <f>VLOOKUP(B385,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>Low</v>
       </c>
       <c r="D385" s="14">
-        <f>(B385-$G$3)/$G$5</f>
+        <f t="shared" si="11"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36506,11 +36506,11 @@
         <v>83.25</v>
       </c>
       <c r="C386" s="14" t="str">
-        <f>VLOOKUP(B386,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" ref="C386:C449" si="12">VLOOKUP(B386,$F$17:$G$26,2,TRUE)</f>
         <v>Low</v>
       </c>
       <c r="D386" s="14">
-        <f>(B386-$G$3)/$G$5</f>
+        <f t="shared" ref="D386:D423" si="13">(B386-$G$3)/$G$5</f>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36522,11 +36522,11 @@
         <v>83.25</v>
       </c>
       <c r="C387" s="14" t="str">
-        <f>VLOOKUP(B387,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D387" s="14">
-        <f>(B387-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36538,11 +36538,11 @@
         <v>83.25</v>
       </c>
       <c r="C388" s="14" t="str">
-        <f>VLOOKUP(B388,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D388" s="14">
-        <f>(B388-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36554,11 +36554,11 @@
         <v>83.25</v>
       </c>
       <c r="C389" s="14" t="str">
-        <f>VLOOKUP(B389,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D389" s="14">
-        <f>(B389-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36570,11 +36570,11 @@
         <v>83.25</v>
       </c>
       <c r="C390" s="14" t="str">
-        <f>VLOOKUP(B390,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D390" s="14">
-        <f>(B390-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36586,11 +36586,11 @@
         <v>83.25</v>
       </c>
       <c r="C391" s="14" t="str">
-        <f>VLOOKUP(B391,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D391" s="14">
-        <f>(B391-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36602,11 +36602,11 @@
         <v>83.25</v>
       </c>
       <c r="C392" s="14" t="str">
-        <f>VLOOKUP(B392,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D392" s="14">
-        <f>(B392-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36618,11 +36618,11 @@
         <v>83.25</v>
       </c>
       <c r="C393" s="14" t="str">
-        <f>VLOOKUP(B393,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D393" s="14">
-        <f>(B393-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36634,11 +36634,11 @@
         <v>83.25</v>
       </c>
       <c r="C394" s="14" t="str">
-        <f>VLOOKUP(B394,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D394" s="14">
-        <f>(B394-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36650,11 +36650,11 @@
         <v>83.25</v>
       </c>
       <c r="C395" s="14" t="str">
-        <f>VLOOKUP(B395,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D395" s="14">
-        <f>(B395-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3117837843631741</v>
       </c>
     </row>
@@ -36666,11 +36666,11 @@
         <v>82.35</v>
       </c>
       <c r="C396" s="14" t="str">
-        <f>VLOOKUP(B396,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D396" s="14">
-        <f>(B396-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.3845744164474958</v>
       </c>
     </row>
@@ -36682,11 +36682,11 @@
         <v>81.45</v>
       </c>
       <c r="C397" s="14" t="str">
-        <f>VLOOKUP(B397,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D397" s="14">
-        <f>(B397-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.4573650485318161</v>
       </c>
     </row>
@@ -36698,11 +36698,11 @@
         <v>81</v>
       </c>
       <c r="C398" s="14" t="str">
-        <f>VLOOKUP(B398,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D398" s="14">
-        <f>(B398-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.493760364573977</v>
       </c>
     </row>
@@ -36714,11 +36714,11 @@
         <v>81</v>
       </c>
       <c r="C399" s="14" t="str">
-        <f>VLOOKUP(B399,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D399" s="14">
-        <f>(B399-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.493760364573977</v>
       </c>
     </row>
@@ -36730,11 +36730,11 @@
         <v>81</v>
       </c>
       <c r="C400" s="14" t="str">
-        <f>VLOOKUP(B400,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D400" s="14">
-        <f>(B400-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.493760364573977</v>
       </c>
     </row>
@@ -36746,11 +36746,11 @@
         <v>78.75</v>
       </c>
       <c r="C401" s="14" t="str">
-        <f>VLOOKUP(B401,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D401" s="14">
-        <f>(B401-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36762,11 +36762,11 @@
         <v>78.75</v>
       </c>
       <c r="C402" s="14" t="str">
-        <f>VLOOKUP(B402,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D402" s="14">
-        <f>(B402-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36778,11 +36778,11 @@
         <v>78.75</v>
       </c>
       <c r="C403" s="14" t="str">
-        <f>VLOOKUP(B403,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D403" s="14">
-        <f>(B403-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36794,11 +36794,11 @@
         <v>78.75</v>
       </c>
       <c r="C404" s="14" t="str">
-        <f>VLOOKUP(B404,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D404" s="14">
-        <f>(B404-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36810,11 +36810,11 @@
         <v>78.75</v>
       </c>
       <c r="C405" s="14" t="str">
-        <f>VLOOKUP(B405,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D405" s="14">
-        <f>(B405-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36826,11 +36826,11 @@
         <v>78.75</v>
       </c>
       <c r="C406" s="14" t="str">
-        <f>VLOOKUP(B406,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D406" s="14">
-        <f>(B406-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36842,11 +36842,11 @@
         <v>78.75</v>
       </c>
       <c r="C407" s="14" t="str">
-        <f>VLOOKUP(B407,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D407" s="14">
-        <f>(B407-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36858,11 +36858,11 @@
         <v>78.75</v>
       </c>
       <c r="C408" s="14" t="str">
-        <f>VLOOKUP(B408,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D408" s="14">
-        <f>(B408-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36874,11 +36874,11 @@
         <v>78.75</v>
       </c>
       <c r="C409" s="14" t="str">
-        <f>VLOOKUP(B409,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D409" s="14">
-        <f>(B409-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36890,11 +36890,11 @@
         <v>78.75</v>
       </c>
       <c r="C410" s="14" t="str">
-        <f>VLOOKUP(B410,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D410" s="14">
-        <f>(B410-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36906,11 +36906,11 @@
         <v>78.75</v>
       </c>
       <c r="C411" s="14" t="str">
-        <f>VLOOKUP(B411,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D411" s="14">
-        <f>(B411-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36922,11 +36922,11 @@
         <v>78.75</v>
       </c>
       <c r="C412" s="14" t="str">
-        <f>VLOOKUP(B412,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D412" s="14">
-        <f>(B412-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.6757369447847796</v>
       </c>
     </row>
@@ -36938,11 +36938,11 @@
         <v>77.849999999999994</v>
       </c>
       <c r="C413" s="14" t="str">
-        <f>VLOOKUP(B413,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D413" s="14">
-        <f>(B413-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.7485275768691013</v>
       </c>
     </row>
@@ -36954,11 +36954,11 @@
         <v>77.400000000000006</v>
       </c>
       <c r="C414" s="14" t="str">
-        <f>VLOOKUP(B414,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D414" s="14">
-        <f>(B414-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.7849228929112608</v>
       </c>
     </row>
@@ -36970,11 +36970,11 @@
         <v>77.400000000000006</v>
       </c>
       <c r="C415" s="14" t="str">
-        <f>VLOOKUP(B415,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D415" s="14">
-        <f>(B415-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.7849228929112608</v>
       </c>
     </row>
@@ -36986,11 +36986,11 @@
         <v>77.400000000000006</v>
       </c>
       <c r="C416" s="14" t="str">
-        <f>VLOOKUP(B416,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D416" s="14">
-        <f>(B416-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.7849228929112608</v>
       </c>
     </row>
@@ -37002,11 +37002,11 @@
         <v>76.5</v>
       </c>
       <c r="C417" s="14" t="str">
-        <f>VLOOKUP(B417,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D417" s="14">
-        <f>(B417-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.8577135249955825</v>
       </c>
     </row>
@@ -37018,11 +37018,11 @@
         <v>76.5</v>
       </c>
       <c r="C418" s="14" t="str">
-        <f>VLOOKUP(B418,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D418" s="14">
-        <f>(B418-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-1.8577135249955825</v>
       </c>
     </row>
@@ -37034,11 +37034,11 @@
         <v>74.7</v>
       </c>
       <c r="C419" s="14" t="str">
-        <f>VLOOKUP(B419,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D419" s="14">
-        <f>(B419-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-2.0032947891642245</v>
       </c>
     </row>
@@ -37050,11 +37050,11 @@
         <v>74.25</v>
       </c>
       <c r="C420" s="14" t="str">
-        <f>VLOOKUP(B420,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D420" s="14">
-        <f>(B420-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-2.0396901052063852</v>
       </c>
     </row>
@@ -37066,11 +37066,11 @@
         <v>74.25</v>
       </c>
       <c r="C421" s="14" t="str">
-        <f>VLOOKUP(B421,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D421" s="14">
-        <f>(B421-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-2.0396901052063852</v>
       </c>
     </row>
@@ -37082,11 +37082,11 @@
         <v>74.25</v>
       </c>
       <c r="C422" s="14" t="str">
-        <f>VLOOKUP(B422,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D422" s="14">
-        <f>(B422-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-2.0396901052063852</v>
       </c>
     </row>
@@ -37098,11 +37098,11 @@
         <v>72.45</v>
       </c>
       <c r="C423" s="14" t="str">
-        <f>VLOOKUP(B423,$F$17:$G$26,2,TRUE)</f>
+        <f t="shared" si="12"/>
         <v>Low</v>
       </c>
       <c r="D423" s="14">
-        <f>(B423-$G$3)/$G$5</f>
+        <f t="shared" si="13"/>
         <v>-2.1852713693750272</v>
       </c>
     </row>
@@ -37111,6 +37111,22 @@
     <sortCondition descending="1" ref="B2:B423"/>
   </sortState>
   <mergeCells count="32">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="M18:M21"/>
     <mergeCell ref="K17:L18"/>
     <mergeCell ref="G5:G6"/>
@@ -37127,22 +37143,6 @@
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
